--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01455536608097</v>
+        <v>1.014555366080998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2139646886243156</v>
+        <v>0.2139646886243014</v>
       </c>
       <c r="E2">
-        <v>0.216840281164032</v>
+        <v>0.2168402811640533</v>
       </c>
       <c r="F2">
         <v>4.476017176370817</v>
       </c>
       <c r="G2">
-        <v>3.905029503383247</v>
+        <v>3.905029503383275</v>
       </c>
       <c r="H2">
         <v>1.577617584480407</v>
       </c>
       <c r="I2">
-        <v>0.06318500079354905</v>
+        <v>0.06318500079356326</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8790453341308933</v>
+        <v>0.8790453341307511</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1791240627878921</v>
+        <v>0.1791240627878778</v>
       </c>
       <c r="E3">
-        <v>0.1928426918727197</v>
+        <v>0.1928426918727553</v>
       </c>
       <c r="F3">
         <v>3.76072826734881</v>
       </c>
       <c r="G3">
-        <v>3.27785205849149</v>
+        <v>3.277852058491476</v>
       </c>
       <c r="H3">
-        <v>1.392628074922115</v>
+        <v>1.392628074922072</v>
       </c>
       <c r="I3">
-        <v>0.05757110128574894</v>
+        <v>0.05757110128573473</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.058852817512758</v>
+        <v>6.058852817512786</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7966066085068064</v>
+        <v>0.7966066085071759</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1589586725426955</v>
+        <v>0.1589586725428376</v>
       </c>
       <c r="E4">
-        <v>0.1781016396279256</v>
+        <v>0.178101639627954</v>
       </c>
       <c r="F4">
-        <v>3.350461960786873</v>
+        <v>3.350461960786816</v>
       </c>
       <c r="G4">
-        <v>2.91781274068174</v>
+        <v>2.917812740681711</v>
       </c>
       <c r="H4">
-        <v>1.282229604319625</v>
+        <v>1.28222960431961</v>
       </c>
       <c r="I4">
-        <v>0.05419062554916643</v>
+        <v>0.05419062554915399</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.468222601590583</v>
+        <v>5.468222601590526</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7631600361702056</v>
+        <v>0.7631600361699782</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1509877773330714</v>
+        <v>0.150987777333313</v>
       </c>
       <c r="E5">
-        <v>0.1720926225148744</v>
+        <v>0.17209262251491</v>
       </c>
       <c r="F5">
         <v>3.189217810421866</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.757614009886737</v>
+        <v>0.7576140098864812</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.1496775380987572</v>
       </c>
       <c r="E6">
-        <v>0.171094707172152</v>
+        <v>0.1710947071721662</v>
       </c>
       <c r="F6">
         <v>3.162768128780868</v>
@@ -582,10 +582,10 @@
         <v>2.753003429278451</v>
       </c>
       <c r="H6">
-        <v>1.230609650246009</v>
+        <v>1.230609650245995</v>
       </c>
       <c r="I6">
-        <v>0.05260431472143701</v>
+        <v>0.05260431472144766</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.19062004413513</v>
+        <v>5.190620044135073</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7961549917203001</v>
+        <v>0.7961549917204138</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0.158850248240114</v>
       </c>
       <c r="E7">
-        <v>0.1780206080100371</v>
+        <v>0.1780206080100157</v>
       </c>
       <c r="F7">
         <v>3.34826487739619</v>
       </c>
       <c r="G7">
-        <v>2.915883902733285</v>
+        <v>2.915883902733313</v>
       </c>
       <c r="H7">
-        <v>1.281629492462102</v>
+        <v>1.281629492462116</v>
       </c>
       <c r="I7">
-        <v>0.05417220174828508</v>
+        <v>0.05417220174829041</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.465001040160445</v>
+        <v>5.465001040160388</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,22 +646,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.201655437633363</v>
+        <v>0.201655437633093</v>
       </c>
       <c r="E8">
         <v>0.2085670228989329</v>
       </c>
       <c r="F8">
-        <v>4.222493038279225</v>
+        <v>4.222493038279254</v>
       </c>
       <c r="G8">
-        <v>3.682803415538331</v>
+        <v>3.682803415538388</v>
       </c>
       <c r="H8">
-        <v>1.513097054365389</v>
+        <v>1.513097054365375</v>
       </c>
       <c r="I8">
-        <v>0.06123531830677109</v>
+        <v>0.06123531830678886</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.699559182893012</v>
+        <v>6.699559182892983</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.312456834062004</v>
+        <v>1.312456834061919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2990562078749832</v>
+        <v>0.2990562078745995</v>
       </c>
       <c r="E9">
-        <v>0.2684423678232122</v>
+        <v>0.2684423678232193</v>
       </c>
       <c r="F9">
-        <v>6.245301839859565</v>
+        <v>6.245301839859508</v>
       </c>
       <c r="G9">
-        <v>5.454440264738935</v>
+        <v>5.454440264738849</v>
       </c>
       <c r="H9">
         <v>1.998637311616619</v>
       </c>
       <c r="I9">
-        <v>0.07562406871938876</v>
+        <v>0.07562406871939942</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575409140650805</v>
+        <v>1.575409140650521</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3864419086419275</v>
+        <v>0.3864419086419133</v>
       </c>
       <c r="E10">
         <v>0.3124826132230751</v>
@@ -731,13 +731,13 @@
         <v>8.077853795557644</v>
       </c>
       <c r="G10">
-        <v>7.057750890353446</v>
+        <v>7.057750890353418</v>
       </c>
       <c r="H10">
         <v>2.38615627430363</v>
       </c>
       <c r="I10">
-        <v>0.08650866087700493</v>
+        <v>0.08650866087695874</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.31247934079505</v>
+        <v>11.31247934079499</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.698559663370418</v>
+        <v>1.698559663370304</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4325971244881259</v>
+        <v>0.4325971244880975</v>
       </c>
       <c r="E11">
-        <v>0.3325611307945948</v>
+        <v>0.3325611307945664</v>
       </c>
       <c r="F11">
-        <v>9.046819825434</v>
+        <v>9.046819825434056</v>
       </c>
       <c r="G11">
-        <v>7.905280441744452</v>
+        <v>7.905280441744509</v>
       </c>
       <c r="H11">
         <v>2.572912865170125</v>
       </c>
       <c r="I11">
-        <v>0.09150512451602921</v>
+        <v>0.09150512451604698</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.31221491169427</v>
+        <v>12.3122149116943</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.74588063858738</v>
+        <v>1.745880638587607</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.451427468019105</v>
+        <v>0.4514274680189203</v>
       </c>
       <c r="E12">
-        <v>0.3401766237894606</v>
+        <v>0.3401766237894464</v>
       </c>
       <c r="F12">
-        <v>9.441768906755868</v>
+        <v>9.441768906755811</v>
       </c>
       <c r="G12">
-        <v>8.25072850155999</v>
+        <v>8.250728501559905</v>
       </c>
       <c r="H12">
-        <v>2.645612925892223</v>
+        <v>2.645612925892209</v>
       </c>
       <c r="I12">
-        <v>0.09339832657854785</v>
+        <v>0.09339832657856206</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.70473720771184</v>
+        <v>12.70473720771182</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.73565499650752</v>
+        <v>1.735654996507662</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4473021809528603</v>
+        <v>0.4473021809532298</v>
       </c>
       <c r="E13">
         <v>0.338535797032101</v>
       </c>
       <c r="F13">
-        <v>9.355273270064998</v>
+        <v>9.355273270065027</v>
       </c>
       <c r="G13">
-        <v>8.175073284923684</v>
+        <v>8.175073284923712</v>
       </c>
       <c r="H13">
         <v>2.629857835194997</v>
       </c>
       <c r="I13">
-        <v>0.0929906807016998</v>
+        <v>0.09299068070167493</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.702437731887954</v>
+        <v>1.702437731887613</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.434115823087069</v>
+        <v>0.4341158230868842</v>
       </c>
       <c r="E14">
-        <v>0.3331873653895343</v>
+        <v>0.3331873653895485</v>
       </c>
       <c r="F14">
         <v>9.078684531699025</v>
       </c>
       <c r="G14">
-        <v>7.933151214436748</v>
+        <v>7.933151214436776</v>
       </c>
       <c r="H14">
         <v>2.578850828107818</v>
       </c>
       <c r="I14">
-        <v>0.09166090465316756</v>
+        <v>0.0916609046532102</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.34419522321102</v>
+        <v>12.34419522321105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682187184726757</v>
+        <v>1.682187184726786</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.426231942615928</v>
+        <v>0.4262319426159422</v>
       </c>
       <c r="E15">
-        <v>0.3299131438678486</v>
+        <v>0.3299131438678629</v>
       </c>
       <c r="F15">
-        <v>8.913249869300728</v>
+        <v>8.913249869300756</v>
       </c>
       <c r="G15">
-        <v>7.788452266156952</v>
+        <v>7.78845226615698</v>
       </c>
       <c r="H15">
-        <v>2.547882805499242</v>
+        <v>2.54788280549927</v>
       </c>
       <c r="I15">
         <v>0.09084628797816308</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.17755589553195</v>
+        <v>12.17755589553201</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.567445738885027</v>
+        <v>1.567445738885482</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3835861741264637</v>
+        <v>0.3835861741260516</v>
       </c>
       <c r="E16">
-        <v>0.311171722306689</v>
+        <v>0.3111717223066961</v>
       </c>
       <c r="F16">
-        <v>8.017886783222735</v>
+        <v>8.017886783222849</v>
       </c>
       <c r="G16">
-        <v>7.0052969488803</v>
+        <v>7.005296948880329</v>
       </c>
       <c r="H16">
-        <v>2.374198294102413</v>
+        <v>2.37419829410247</v>
       </c>
       <c r="I16">
         <v>0.08618267948581604</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.24881232288266</v>
+        <v>11.24881232288271</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498066934377988</v>
+        <v>1.498066934378272</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3593055503752822</v>
+        <v>0.3593055503752396</v>
       </c>
       <c r="E17">
-        <v>0.2996886817570683</v>
+        <v>0.2996886817570399</v>
       </c>
       <c r="F17">
-        <v>7.508102519055484</v>
+        <v>7.508102519055569</v>
       </c>
       <c r="G17">
-        <v>6.559360285732623</v>
+        <v>6.55936028573268</v>
       </c>
       <c r="H17">
-        <v>2.270612956524488</v>
+        <v>2.270612956524516</v>
       </c>
       <c r="I17">
-        <v>0.08333070069593873</v>
+        <v>0.08333070069593518</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.69865914640931</v>
+        <v>10.6986591464094</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.458480914844529</v>
+        <v>1.458480914844927</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3459078541216627</v>
+        <v>0.3459078541214637</v>
       </c>
       <c r="E18">
-        <v>0.2930876177349546</v>
+        <v>0.2930876177349475</v>
       </c>
       <c r="F18">
         <v>7.226940063255341</v>
       </c>
       <c r="G18">
-        <v>6.313390437246028</v>
+        <v>6.313390437246056</v>
       </c>
       <c r="H18">
-        <v>2.211982888206165</v>
+        <v>2.211982888206137</v>
       </c>
       <c r="I18">
-        <v>0.08169503234926623</v>
+        <v>0.08169503234928754</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44512815052488</v>
+        <v>1.445128150524738</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3414594412791416</v>
+        <v>0.341459441279099</v>
       </c>
       <c r="E19">
-        <v>0.2908531324479782</v>
+        <v>0.2908531324479426</v>
       </c>
       <c r="F19">
-        <v>7.133618080680947</v>
+        <v>7.13361808068106</v>
       </c>
       <c r="G19">
-        <v>6.231745204581244</v>
+        <v>6.231745204581301</v>
       </c>
       <c r="H19">
-        <v>2.192283247974643</v>
+        <v>2.192283247974629</v>
       </c>
       <c r="I19">
-        <v>0.08114212970439638</v>
+        <v>0.08114212970436441</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.28399301130338</v>
+        <v>10.28399301130335</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.505418352849489</v>
+        <v>1.505418352849773</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3618290745060335</v>
+        <v>0.3618290745056498</v>
       </c>
       <c r="E20">
         <v>0.3009106624439042</v>
@@ -1111,13 +1111,13 @@
         <v>7.561074139203612</v>
       </c>
       <c r="G20">
-        <v>6.605699625157797</v>
+        <v>6.605699625157854</v>
       </c>
       <c r="H20">
         <v>2.281538679094311</v>
       </c>
       <c r="I20">
-        <v>0.08363383572168814</v>
+        <v>0.08363383572170235</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.75658233286904</v>
+        <v>10.75658233286907</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.712174009475717</v>
+        <v>1.712174009475518</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4379475658739551</v>
+        <v>0.4379475658735572</v>
       </c>
       <c r="E21">
-        <v>0.3347579257866826</v>
+        <v>0.3347579257866897</v>
       </c>
       <c r="F21">
-        <v>9.159072425461716</v>
+        <v>9.159072425461801</v>
       </c>
       <c r="G21">
-        <v>8.003463337477541</v>
+        <v>8.003463337477598</v>
       </c>
       <c r="H21">
-        <v>2.593774307462454</v>
+        <v>2.593774307462439</v>
       </c>
       <c r="I21">
-        <v>0.09205152816177531</v>
+        <v>0.09205152816178241</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.42462979194653</v>
+        <v>12.42462979194667</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.85145247616046</v>
+        <v>1.851452476160318</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4960077816216995</v>
+        <v>0.4960077816215573</v>
       </c>
       <c r="E22">
-        <v>0.3569579545981654</v>
+        <v>0.3569579545981227</v>
       </c>
       <c r="F22">
-        <v>10.37511878659578</v>
+        <v>10.37511878659569</v>
       </c>
       <c r="G22">
-        <v>9.067145933602404</v>
+        <v>9.067145933602347</v>
       </c>
       <c r="H22">
-        <v>2.809774656716016</v>
+        <v>2.809774656716073</v>
       </c>
       <c r="I22">
-        <v>0.0975525705208824</v>
+        <v>0.09755257052089306</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776654984547065</v>
+        <v>1.776654984547207</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.464038468736419</v>
+        <v>0.4640384687366037</v>
       </c>
       <c r="E23">
         <v>0.3450985236466977</v>
       </c>
       <c r="F23">
-        <v>9.706069603220584</v>
+        <v>9.706069603220726</v>
       </c>
       <c r="G23">
-        <v>8.481907675373066</v>
+        <v>8.481907675373265</v>
       </c>
       <c r="H23">
-        <v>2.693181004570604</v>
+        <v>2.69318100457059</v>
       </c>
       <c r="I23">
-        <v>0.09461992747456449</v>
+        <v>0.09461992747457515</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.9628114426441</v>
+        <v>12.96281144264415</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.502093852003441</v>
+        <v>1.502093852003185</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3606864686657758</v>
+        <v>0.3606864686659748</v>
       </c>
       <c r="E24">
         <v>0.3003582031801884</v>
@@ -1263,13 +1263,13 @@
         <v>7.537089113537206</v>
       </c>
       <c r="G24">
-        <v>6.584717700062043</v>
+        <v>6.584717700062015</v>
       </c>
       <c r="H24">
-        <v>2.276596319064254</v>
+        <v>2.276596319064268</v>
       </c>
       <c r="I24">
-        <v>0.08349677568373082</v>
+        <v>0.08349677568373792</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21787092911029</v>
+        <v>1.217870929110006</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2706405394285554</v>
+        <v>0.2706405394285412</v>
       </c>
       <c r="E25">
-        <v>0.2522423699608822</v>
+        <v>0.2522423699609178</v>
       </c>
       <c r="F25">
-        <v>5.651912696846978</v>
+        <v>5.651912696846949</v>
       </c>
       <c r="G25">
-        <v>4.935019996503968</v>
+        <v>4.935019996503939</v>
       </c>
       <c r="H25">
-        <v>1.862882883875855</v>
+        <v>1.862882883875884</v>
       </c>
       <c r="I25">
-        <v>0.07167334870647579</v>
+        <v>0.07167334870645803</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.546908200689586</v>
+        <v>8.546908200689614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014555366080998</v>
+        <v>1.01455536608097</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2139646886243014</v>
+        <v>0.2139646886243156</v>
       </c>
       <c r="E2">
-        <v>0.2168402811640533</v>
+        <v>0.216840281164032</v>
       </c>
       <c r="F2">
         <v>4.476017176370817</v>
       </c>
       <c r="G2">
-        <v>3.905029503383275</v>
+        <v>3.905029503383247</v>
       </c>
       <c r="H2">
         <v>1.577617584480407</v>
       </c>
       <c r="I2">
-        <v>0.06318500079356326</v>
+        <v>0.06318500079354905</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8790453341307511</v>
+        <v>0.8790453341308933</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1791240627878778</v>
+        <v>0.1791240627878921</v>
       </c>
       <c r="E3">
-        <v>0.1928426918727553</v>
+        <v>0.1928426918727197</v>
       </c>
       <c r="F3">
         <v>3.76072826734881</v>
       </c>
       <c r="G3">
-        <v>3.277852058491476</v>
+        <v>3.27785205849149</v>
       </c>
       <c r="H3">
-        <v>1.392628074922072</v>
+        <v>1.392628074922115</v>
       </c>
       <c r="I3">
-        <v>0.05757110128573473</v>
+        <v>0.05757110128574894</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.058852817512786</v>
+        <v>6.058852817512758</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7966066085071759</v>
+        <v>0.7966066085068064</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1589586725428376</v>
+        <v>0.1589586725426955</v>
       </c>
       <c r="E4">
-        <v>0.178101639627954</v>
+        <v>0.1781016396279256</v>
       </c>
       <c r="F4">
-        <v>3.350461960786816</v>
+        <v>3.350461960786873</v>
       </c>
       <c r="G4">
-        <v>2.917812740681711</v>
+        <v>2.91781274068174</v>
       </c>
       <c r="H4">
-        <v>1.28222960431961</v>
+        <v>1.282229604319625</v>
       </c>
       <c r="I4">
-        <v>0.05419062554915399</v>
+        <v>0.05419062554916643</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.468222601590526</v>
+        <v>5.468222601590583</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7631600361699782</v>
+        <v>0.7631600361702056</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.150987777333313</v>
+        <v>0.1509877773330714</v>
       </c>
       <c r="E5">
-        <v>0.17209262251491</v>
+        <v>0.1720926225148744</v>
       </c>
       <c r="F5">
         <v>3.189217810421866</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7576140098864812</v>
+        <v>0.757614009886737</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.1496775380987572</v>
       </c>
       <c r="E6">
-        <v>0.1710947071721662</v>
+        <v>0.171094707172152</v>
       </c>
       <c r="F6">
         <v>3.162768128780868</v>
@@ -582,10 +582,10 @@
         <v>2.753003429278451</v>
       </c>
       <c r="H6">
-        <v>1.230609650245995</v>
+        <v>1.230609650246009</v>
       </c>
       <c r="I6">
-        <v>0.05260431472144766</v>
+        <v>0.05260431472143701</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.190620044135073</v>
+        <v>5.19062004413513</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7961549917204138</v>
+        <v>0.7961549917203001</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0.158850248240114</v>
       </c>
       <c r="E7">
-        <v>0.1780206080100157</v>
+        <v>0.1780206080100371</v>
       </c>
       <c r="F7">
         <v>3.34826487739619</v>
       </c>
       <c r="G7">
-        <v>2.915883902733313</v>
+        <v>2.915883902733285</v>
       </c>
       <c r="H7">
-        <v>1.281629492462116</v>
+        <v>1.281629492462102</v>
       </c>
       <c r="I7">
-        <v>0.05417220174829041</v>
+        <v>0.05417220174828508</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.465001040160388</v>
+        <v>5.465001040160445</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,22 +646,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.201655437633093</v>
+        <v>0.201655437633363</v>
       </c>
       <c r="E8">
         <v>0.2085670228989329</v>
       </c>
       <c r="F8">
-        <v>4.222493038279254</v>
+        <v>4.222493038279225</v>
       </c>
       <c r="G8">
-        <v>3.682803415538388</v>
+        <v>3.682803415538331</v>
       </c>
       <c r="H8">
-        <v>1.513097054365375</v>
+        <v>1.513097054365389</v>
       </c>
       <c r="I8">
-        <v>0.06123531830678886</v>
+        <v>0.06123531830677109</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.699559182892983</v>
+        <v>6.699559182893012</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.312456834061919</v>
+        <v>1.312456834062004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2990562078745995</v>
+        <v>0.2990562078749832</v>
       </c>
       <c r="E9">
-        <v>0.2684423678232193</v>
+        <v>0.2684423678232122</v>
       </c>
       <c r="F9">
-        <v>6.245301839859508</v>
+        <v>6.245301839859565</v>
       </c>
       <c r="G9">
-        <v>5.454440264738849</v>
+        <v>5.454440264738935</v>
       </c>
       <c r="H9">
         <v>1.998637311616619</v>
       </c>
       <c r="I9">
-        <v>0.07562406871939942</v>
+        <v>0.07562406871938876</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575409140650521</v>
+        <v>1.575409140650805</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3864419086419133</v>
+        <v>0.3864419086419275</v>
       </c>
       <c r="E10">
         <v>0.3124826132230751</v>
@@ -731,13 +731,13 @@
         <v>8.077853795557644</v>
       </c>
       <c r="G10">
-        <v>7.057750890353418</v>
+        <v>7.057750890353446</v>
       </c>
       <c r="H10">
         <v>2.38615627430363</v>
       </c>
       <c r="I10">
-        <v>0.08650866087695874</v>
+        <v>0.08650866087700493</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.31247934079499</v>
+        <v>11.31247934079505</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.698559663370304</v>
+        <v>1.698559663370418</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4325971244880975</v>
+        <v>0.4325971244881259</v>
       </c>
       <c r="E11">
-        <v>0.3325611307945664</v>
+        <v>0.3325611307945948</v>
       </c>
       <c r="F11">
-        <v>9.046819825434056</v>
+        <v>9.046819825434</v>
       </c>
       <c r="G11">
-        <v>7.905280441744509</v>
+        <v>7.905280441744452</v>
       </c>
       <c r="H11">
         <v>2.572912865170125</v>
       </c>
       <c r="I11">
-        <v>0.09150512451604698</v>
+        <v>0.09150512451602921</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.3122149116943</v>
+        <v>12.31221491169427</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.745880638587607</v>
+        <v>1.74588063858738</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4514274680189203</v>
+        <v>0.451427468019105</v>
       </c>
       <c r="E12">
-        <v>0.3401766237894464</v>
+        <v>0.3401766237894606</v>
       </c>
       <c r="F12">
-        <v>9.441768906755811</v>
+        <v>9.441768906755868</v>
       </c>
       <c r="G12">
-        <v>8.250728501559905</v>
+        <v>8.25072850155999</v>
       </c>
       <c r="H12">
-        <v>2.645612925892209</v>
+        <v>2.645612925892223</v>
       </c>
       <c r="I12">
-        <v>0.09339832657856206</v>
+        <v>0.09339832657854785</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.70473720771182</v>
+        <v>12.70473720771184</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.735654996507662</v>
+        <v>1.73565499650752</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4473021809532298</v>
+        <v>0.4473021809528603</v>
       </c>
       <c r="E13">
         <v>0.338535797032101</v>
       </c>
       <c r="F13">
-        <v>9.355273270065027</v>
+        <v>9.355273270064998</v>
       </c>
       <c r="G13">
-        <v>8.175073284923712</v>
+        <v>8.175073284923684</v>
       </c>
       <c r="H13">
         <v>2.629857835194997</v>
       </c>
       <c r="I13">
-        <v>0.09299068070167493</v>
+        <v>0.0929906807016998</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.702437731887613</v>
+        <v>1.702437731887954</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4341158230868842</v>
+        <v>0.434115823087069</v>
       </c>
       <c r="E14">
-        <v>0.3331873653895485</v>
+        <v>0.3331873653895343</v>
       </c>
       <c r="F14">
         <v>9.078684531699025</v>
       </c>
       <c r="G14">
-        <v>7.933151214436776</v>
+        <v>7.933151214436748</v>
       </c>
       <c r="H14">
         <v>2.578850828107818</v>
       </c>
       <c r="I14">
-        <v>0.0916609046532102</v>
+        <v>0.09166090465316756</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.34419522321105</v>
+        <v>12.34419522321102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682187184726786</v>
+        <v>1.682187184726757</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4262319426159422</v>
+        <v>0.426231942615928</v>
       </c>
       <c r="E15">
-        <v>0.3299131438678629</v>
+        <v>0.3299131438678486</v>
       </c>
       <c r="F15">
-        <v>8.913249869300756</v>
+        <v>8.913249869300728</v>
       </c>
       <c r="G15">
-        <v>7.78845226615698</v>
+        <v>7.788452266156952</v>
       </c>
       <c r="H15">
-        <v>2.54788280549927</v>
+        <v>2.547882805499242</v>
       </c>
       <c r="I15">
         <v>0.09084628797816308</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.17755589553201</v>
+        <v>12.17755589553195</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.567445738885482</v>
+        <v>1.567445738885027</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3835861741260516</v>
+        <v>0.3835861741264637</v>
       </c>
       <c r="E16">
-        <v>0.3111717223066961</v>
+        <v>0.311171722306689</v>
       </c>
       <c r="F16">
-        <v>8.017886783222849</v>
+        <v>8.017886783222735</v>
       </c>
       <c r="G16">
-        <v>7.005296948880329</v>
+        <v>7.0052969488803</v>
       </c>
       <c r="H16">
-        <v>2.37419829410247</v>
+        <v>2.374198294102413</v>
       </c>
       <c r="I16">
         <v>0.08618267948581604</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.24881232288271</v>
+        <v>11.24881232288266</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498066934378272</v>
+        <v>1.498066934377988</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3593055503752396</v>
+        <v>0.3593055503752822</v>
       </c>
       <c r="E17">
-        <v>0.2996886817570399</v>
+        <v>0.2996886817570683</v>
       </c>
       <c r="F17">
-        <v>7.508102519055569</v>
+        <v>7.508102519055484</v>
       </c>
       <c r="G17">
-        <v>6.55936028573268</v>
+        <v>6.559360285732623</v>
       </c>
       <c r="H17">
-        <v>2.270612956524516</v>
+        <v>2.270612956524488</v>
       </c>
       <c r="I17">
-        <v>0.08333070069593518</v>
+        <v>0.08333070069593873</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.6986591464094</v>
+        <v>10.69865914640931</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.458480914844927</v>
+        <v>1.458480914844529</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3459078541214637</v>
+        <v>0.3459078541216627</v>
       </c>
       <c r="E18">
-        <v>0.2930876177349475</v>
+        <v>0.2930876177349546</v>
       </c>
       <c r="F18">
         <v>7.226940063255341</v>
       </c>
       <c r="G18">
-        <v>6.313390437246056</v>
+        <v>6.313390437246028</v>
       </c>
       <c r="H18">
-        <v>2.211982888206137</v>
+        <v>2.211982888206165</v>
       </c>
       <c r="I18">
-        <v>0.08169503234928754</v>
+        <v>0.08169503234926623</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.445128150524738</v>
+        <v>1.44512815052488</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.341459441279099</v>
+        <v>0.3414594412791416</v>
       </c>
       <c r="E19">
-        <v>0.2908531324479426</v>
+        <v>0.2908531324479782</v>
       </c>
       <c r="F19">
-        <v>7.13361808068106</v>
+        <v>7.133618080680947</v>
       </c>
       <c r="G19">
-        <v>6.231745204581301</v>
+        <v>6.231745204581244</v>
       </c>
       <c r="H19">
-        <v>2.192283247974629</v>
+        <v>2.192283247974643</v>
       </c>
       <c r="I19">
-        <v>0.08114212970436441</v>
+        <v>0.08114212970439638</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.28399301130335</v>
+        <v>10.28399301130338</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.505418352849773</v>
+        <v>1.505418352849489</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3618290745056498</v>
+        <v>0.3618290745060335</v>
       </c>
       <c r="E20">
         <v>0.3009106624439042</v>
@@ -1111,13 +1111,13 @@
         <v>7.561074139203612</v>
       </c>
       <c r="G20">
-        <v>6.605699625157854</v>
+        <v>6.605699625157797</v>
       </c>
       <c r="H20">
         <v>2.281538679094311</v>
       </c>
       <c r="I20">
-        <v>0.08363383572170235</v>
+        <v>0.08363383572168814</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.75658233286907</v>
+        <v>10.75658233286904</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.712174009475518</v>
+        <v>1.712174009475717</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4379475658735572</v>
+        <v>0.4379475658739551</v>
       </c>
       <c r="E21">
-        <v>0.3347579257866897</v>
+        <v>0.3347579257866826</v>
       </c>
       <c r="F21">
-        <v>9.159072425461801</v>
+        <v>9.159072425461716</v>
       </c>
       <c r="G21">
-        <v>8.003463337477598</v>
+        <v>8.003463337477541</v>
       </c>
       <c r="H21">
-        <v>2.593774307462439</v>
+        <v>2.593774307462454</v>
       </c>
       <c r="I21">
-        <v>0.09205152816178241</v>
+        <v>0.09205152816177531</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.42462979194667</v>
+        <v>12.42462979194653</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.851452476160318</v>
+        <v>1.85145247616046</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4960077816215573</v>
+        <v>0.4960077816216995</v>
       </c>
       <c r="E22">
-        <v>0.3569579545981227</v>
+        <v>0.3569579545981654</v>
       </c>
       <c r="F22">
-        <v>10.37511878659569</v>
+        <v>10.37511878659578</v>
       </c>
       <c r="G22">
-        <v>9.067145933602347</v>
+        <v>9.067145933602404</v>
       </c>
       <c r="H22">
-        <v>2.809774656716073</v>
+        <v>2.809774656716016</v>
       </c>
       <c r="I22">
-        <v>0.09755257052089306</v>
+        <v>0.0975525705208824</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776654984547207</v>
+        <v>1.776654984547065</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4640384687366037</v>
+        <v>0.464038468736419</v>
       </c>
       <c r="E23">
         <v>0.3450985236466977</v>
       </c>
       <c r="F23">
-        <v>9.706069603220726</v>
+        <v>9.706069603220584</v>
       </c>
       <c r="G23">
-        <v>8.481907675373265</v>
+        <v>8.481907675373066</v>
       </c>
       <c r="H23">
-        <v>2.69318100457059</v>
+        <v>2.693181004570604</v>
       </c>
       <c r="I23">
-        <v>0.09461992747457515</v>
+        <v>0.09461992747456449</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.96281144264415</v>
+        <v>12.9628114426441</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.502093852003185</v>
+        <v>1.502093852003441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3606864686659748</v>
+        <v>0.3606864686657758</v>
       </c>
       <c r="E24">
         <v>0.3003582031801884</v>
@@ -1263,13 +1263,13 @@
         <v>7.537089113537206</v>
       </c>
       <c r="G24">
-        <v>6.584717700062015</v>
+        <v>6.584717700062043</v>
       </c>
       <c r="H24">
-        <v>2.276596319064268</v>
+        <v>2.276596319064254</v>
       </c>
       <c r="I24">
-        <v>0.08349677568373792</v>
+        <v>0.08349677568373082</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.217870929110006</v>
+        <v>1.21787092911029</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2706405394285412</v>
+        <v>0.2706405394285554</v>
       </c>
       <c r="E25">
-        <v>0.2522423699609178</v>
+        <v>0.2522423699608822</v>
       </c>
       <c r="F25">
-        <v>5.651912696846949</v>
+        <v>5.651912696846978</v>
       </c>
       <c r="G25">
-        <v>4.935019996503939</v>
+        <v>4.935019996503968</v>
       </c>
       <c r="H25">
-        <v>1.862882883875884</v>
+        <v>1.862882883875855</v>
       </c>
       <c r="I25">
-        <v>0.07167334870645803</v>
+        <v>0.07167334870647579</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.546908200689614</v>
+        <v>8.546908200689586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01455536608097</v>
+        <v>1.014970184948623</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2139646886243156</v>
+        <v>0.2131214742590828</v>
       </c>
       <c r="E2">
-        <v>0.216840281164032</v>
+        <v>0.2164017281717037</v>
       </c>
       <c r="F2">
-        <v>4.476017176370817</v>
+        <v>4.466351422352716</v>
       </c>
       <c r="G2">
-        <v>3.905029503383247</v>
+        <v>1.320203651483126</v>
       </c>
       <c r="H2">
-        <v>1.577617584480407</v>
+        <v>2.576894415297858</v>
       </c>
       <c r="I2">
-        <v>0.06318500079354905</v>
+        <v>1.578952452263096</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06313131882359713</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.041456077733358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>7.03638416159265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8790453341308933</v>
+        <v>0.8794136609385532</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1791240627878921</v>
+        <v>0.1784298119060708</v>
       </c>
       <c r="E3">
-        <v>0.1928426918727197</v>
+        <v>0.1924629994844622</v>
       </c>
       <c r="F3">
-        <v>3.76072826734881</v>
+        <v>3.752878111821246</v>
       </c>
       <c r="G3">
-        <v>3.27785205849149</v>
+        <v>1.105352651479379</v>
       </c>
       <c r="H3">
-        <v>1.392628074922115</v>
+        <v>2.166825999225495</v>
       </c>
       <c r="I3">
-        <v>0.05757110128574894</v>
+        <v>1.393802225629244</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0575219368692963</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.058852817512758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>6.054704751510457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7966066085068064</v>
+        <v>0.7969452079849191</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1589586725426955</v>
+        <v>0.1583481564203311</v>
       </c>
       <c r="E4">
-        <v>0.1781016396279256</v>
+        <v>0.1777579020844584</v>
       </c>
       <c r="F4">
-        <v>3.350461960786873</v>
+        <v>3.343608394829403</v>
       </c>
       <c r="G4">
-        <v>2.91781274068174</v>
+        <v>0.9817556921826736</v>
       </c>
       <c r="H4">
-        <v>1.282229604319625</v>
+        <v>1.931643596784141</v>
       </c>
       <c r="I4">
-        <v>0.05419062554916643</v>
+        <v>1.283302226151221</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.05414472819747651</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.468222601590583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>5.464587626678934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7631600361702056</v>
+        <v>0.763486289042703</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1509877773330714</v>
+        <v>0.1504098756632288</v>
       </c>
       <c r="E5">
-        <v>0.1720926225148744</v>
+        <v>0.1717635258843586</v>
       </c>
       <c r="F5">
-        <v>3.189217810421866</v>
+        <v>3.182747348921339</v>
       </c>
       <c r="G5">
-        <v>2.776232191791721</v>
+        <v>0.9330916388092589</v>
       </c>
       <c r="H5">
-        <v>1.237927563204792</v>
+        <v>1.83921575766793</v>
       </c>
       <c r="I5">
-        <v>0.05282937612563465</v>
+        <v>1.238958245047783</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.05278491683947983</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.230037213926806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5.226600899203731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.757614009886737</v>
+        <v>0.7579382001140118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1496775380987572</v>
+        <v>0.1491049716637463</v>
       </c>
       <c r="E6">
-        <v>0.171094707172152</v>
+        <v>0.1707680418755686</v>
       </c>
       <c r="F6">
-        <v>3.162768128780868</v>
+        <v>3.156360055301548</v>
       </c>
       <c r="G6">
-        <v>2.753003429278451</v>
+        <v>0.9251038440816757</v>
       </c>
       <c r="H6">
-        <v>1.230609650246009</v>
+        <v>1.824054606676526</v>
       </c>
       <c r="I6">
-        <v>0.05260431472143701</v>
+        <v>1.231633337335239</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05256010022973534</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.19062004413513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5.18721616474113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7961549917203001</v>
+        <v>0.7964934255571166</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.158850248240114</v>
+        <v>0.1582401775770563</v>
       </c>
       <c r="E7">
-        <v>0.1780206080100371</v>
+        <v>0.177677067922474</v>
       </c>
       <c r="F7">
-        <v>3.34826487739619</v>
+        <v>3.341416563699283</v>
       </c>
       <c r="G7">
-        <v>2.915883902733285</v>
+        <v>0.9810929586799801</v>
       </c>
       <c r="H7">
-        <v>1.281629492462102</v>
+        <v>1.930384174876622</v>
       </c>
       <c r="I7">
-        <v>0.05417220174828508</v>
+        <v>1.282701550803395</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05412632337904633</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.465001040160445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5.461368783062255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9676437614325835</v>
+        <v>0.9680428404586792</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.201655437633363</v>
+        <v>0.2008654908512852</v>
       </c>
       <c r="E8">
-        <v>0.2085670228989329</v>
+        <v>0.208148828178345</v>
       </c>
       <c r="F8">
-        <v>4.222493038279225</v>
+        <v>4.213482492471144</v>
       </c>
       <c r="G8">
-        <v>3.682803415538331</v>
+        <v>1.24413494720406</v>
       </c>
       <c r="H8">
-        <v>1.513097054365389</v>
+        <v>2.431546697934522</v>
       </c>
       <c r="I8">
-        <v>0.06123531830677109</v>
+        <v>1.514377204577428</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06118307993316208</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.699559182893012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6.694819267305149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.312456834062004</v>
+        <v>1.312961011692948</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2990562078749832</v>
+        <v>0.2978237307025466</v>
       </c>
       <c r="E9">
-        <v>0.2684423678232122</v>
+        <v>0.2678740003521938</v>
       </c>
       <c r="F9">
-        <v>6.245301839859565</v>
+        <v>6.230667873487647</v>
       </c>
       <c r="G9">
-        <v>5.454440264738935</v>
+        <v>1.84914923070329</v>
       </c>
       <c r="H9">
-        <v>1.998637311616619</v>
+        <v>3.591383156779585</v>
       </c>
       <c r="I9">
-        <v>0.07562406871938876</v>
+        <v>2.000292363034646</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07556433016322117</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.262086290885918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>9.25453228742586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575409140650805</v>
+        <v>1.575971198473866</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3864419086419275</v>
+        <v>0.3847637783443218</v>
       </c>
       <c r="E10">
-        <v>0.3124826132230751</v>
+        <v>0.3117964460713694</v>
       </c>
       <c r="F10">
-        <v>8.077853795557644</v>
+        <v>8.057195428167944</v>
       </c>
       <c r="G10">
-        <v>7.057750890353446</v>
+        <v>2.394487402950148</v>
       </c>
       <c r="H10">
-        <v>2.38615627430363</v>
+        <v>4.642421225450107</v>
       </c>
       <c r="I10">
-        <v>0.08650866087700493</v>
+        <v>2.388040104825635</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.08644869218485951</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.31247934079505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>11.30196504903842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.698559663370418</v>
+        <v>1.699138546850293</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4325971244881259</v>
+        <v>0.4306597090975401</v>
       </c>
       <c r="E11">
-        <v>0.3325611307945948</v>
+        <v>0.3318174651258374</v>
       </c>
       <c r="F11">
-        <v>9.046819825434</v>
+        <v>9.022515003029156</v>
       </c>
       <c r="G11">
-        <v>7.905280441744452</v>
+        <v>2.682100748717545</v>
       </c>
       <c r="H11">
-        <v>2.572912865170125</v>
+        <v>5.198273155908623</v>
       </c>
       <c r="I11">
-        <v>0.09150512451602921</v>
+        <v>2.57487750866801</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0914471447676064</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.31221491169427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>12.29992298675506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.74588063858738</v>
+        <v>1.746463594299343</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.451427468019105</v>
+        <v>0.449378551490625</v>
       </c>
       <c r="E12">
-        <v>0.3401766237894606</v>
+        <v>0.3394102464372892</v>
       </c>
       <c r="F12">
-        <v>9.441768906755868</v>
+        <v>9.415867344420946</v>
       </c>
       <c r="G12">
-        <v>8.25072850155999</v>
+        <v>2.799211168870073</v>
       </c>
       <c r="H12">
-        <v>2.645612925892223</v>
+        <v>5.424858205102055</v>
       </c>
       <c r="I12">
-        <v>0.09339832657854785</v>
+        <v>2.647602490536826</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09334155276432909</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.70473720771184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>12.69166903654065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.73565499650752</v>
+        <v>1.736237200794619</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4473021809528603</v>
+        <v>0.4452779986651194</v>
       </c>
       <c r="E13">
-        <v>0.338535797032101</v>
+        <v>0.3377743618887834</v>
       </c>
       <c r="F13">
-        <v>9.355273270064998</v>
+        <v>9.329727330581392</v>
       </c>
       <c r="G13">
-        <v>8.175073284923684</v>
+        <v>2.773569042976732</v>
       </c>
       <c r="H13">
-        <v>2.629857835194997</v>
+        <v>5.375234105222404</v>
       </c>
       <c r="I13">
-        <v>0.0929906807016998</v>
+        <v>2.631842344068573</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0929336233882232</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.61948514865213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12.6065897669715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.702437731887954</v>
+        <v>1.703017004533848</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.434115823087069</v>
+        <v>0.4321695456237791</v>
       </c>
       <c r="E14">
-        <v>0.3331873653895343</v>
+        <v>0.332441853176654</v>
       </c>
       <c r="F14">
-        <v>9.078684531699025</v>
+        <v>9.054253408660429</v>
       </c>
       <c r="G14">
-        <v>7.933151214436748</v>
+        <v>2.691551735195048</v>
       </c>
       <c r="H14">
-        <v>2.578850828107818</v>
+        <v>5.216553740991543</v>
       </c>
       <c r="I14">
-        <v>0.09166090465316756</v>
+        <v>2.580817656026383</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09160301378120295</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.34419522321102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>12.33184185647994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682187184726757</v>
+        <v>1.682764322057835</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.426231942615928</v>
+        <v>0.4243314289164601</v>
       </c>
       <c r="E15">
-        <v>0.3299131438678486</v>
+        <v>0.3291772469507066</v>
       </c>
       <c r="F15">
-        <v>8.913249869300728</v>
+        <v>8.889469812046514</v>
       </c>
       <c r="G15">
-        <v>7.788452266156952</v>
+        <v>2.642479449202881</v>
       </c>
       <c r="H15">
-        <v>2.547882805499242</v>
+        <v>5.121645727232959</v>
       </c>
       <c r="I15">
-        <v>0.09084628797816308</v>
+        <v>2.549837962434097</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09078795180365518</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.17755589553195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>12.16551933672983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.567445738885027</v>
+        <v>1.568006440976689</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3835861741264637</v>
+        <v>0.3819234876358308</v>
       </c>
       <c r="E16">
-        <v>0.311171722306689</v>
+        <v>0.3104892075020729</v>
       </c>
       <c r="F16">
-        <v>8.017886783222735</v>
+        <v>7.997442515414406</v>
       </c>
       <c r="G16">
-        <v>7.0052969488803</v>
+        <v>2.376672815007652</v>
       </c>
       <c r="H16">
-        <v>2.374198294102413</v>
+        <v>4.608023373656437</v>
       </c>
       <c r="I16">
-        <v>0.08618267948581604</v>
+        <v>2.376076213209799</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08612263374898532</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.24881232288266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>11.23840266377888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498066934377988</v>
+        <v>1.498614643581135</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3593055503752822</v>
+        <v>0.3577716018466077</v>
       </c>
       <c r="E17">
-        <v>0.2996886817570683</v>
+        <v>0.2990377159476765</v>
       </c>
       <c r="F17">
-        <v>7.508102519055484</v>
+        <v>7.489428683626215</v>
       </c>
       <c r="G17">
-        <v>6.559360285732623</v>
+        <v>2.225152933830202</v>
       </c>
       <c r="H17">
-        <v>2.270612956524488</v>
+        <v>4.315616763095051</v>
       </c>
       <c r="I17">
-        <v>0.08333070069593873</v>
+        <v>2.272436348643637</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08327022298060527</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.69865914640931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>10.68911607664072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.458480914844529</v>
+        <v>1.459020335124706</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3459078541216627</v>
+        <v>0.3444430640251994</v>
       </c>
       <c r="E18">
-        <v>0.2930876177349546</v>
+        <v>0.292454461253449</v>
       </c>
       <c r="F18">
-        <v>7.226940063255341</v>
+        <v>7.209206475757867</v>
       </c>
       <c r="G18">
-        <v>6.313390437246028</v>
+        <v>2.141522828074983</v>
       </c>
       <c r="H18">
-        <v>2.211982888206165</v>
+        <v>4.154354521069337</v>
       </c>
       <c r="I18">
-        <v>0.08169503234926623</v>
+        <v>2.213772926590295</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08163449071436091</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.38818788891257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10.37910615699306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.44512815052488</v>
+        <v>1.445664642877091</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3414594412791416</v>
+        <v>0.3400173327841856</v>
       </c>
       <c r="E19">
-        <v>0.2908531324479782</v>
+        <v>0.290225955865175</v>
       </c>
       <c r="F19">
-        <v>7.133618080680947</v>
+        <v>7.116191163859099</v>
       </c>
       <c r="G19">
-        <v>6.231745204581244</v>
+        <v>2.113754426442597</v>
       </c>
       <c r="H19">
-        <v>2.192283247974643</v>
+        <v>4.100830681880808</v>
       </c>
       <c r="I19">
-        <v>0.08114212970439638</v>
+        <v>2.194061697805566</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08108159492520173</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.28399301130338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>10.27506193561908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.505418352849489</v>
+        <v>1.505967534311225</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3618290745060335</v>
+        <v>0.3602819540561626</v>
       </c>
       <c r="E20">
-        <v>0.3009106624439042</v>
+        <v>0.3002563750135181</v>
       </c>
       <c r="F20">
-        <v>7.561074139203612</v>
+        <v>7.542220352318907</v>
       </c>
       <c r="G20">
-        <v>6.605699625157797</v>
+        <v>2.240903945490288</v>
       </c>
       <c r="H20">
-        <v>2.281538679094311</v>
+        <v>4.345999674009789</v>
       </c>
       <c r="I20">
-        <v>0.08363383572168814</v>
+        <v>2.283368093537618</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08357338409018311</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.75658233286904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10.74695106186132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.712174009475717</v>
+        <v>1.712754216836828</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4379475658739551</v>
+        <v>0.4359788289641386</v>
       </c>
       <c r="E21">
-        <v>0.3347579257866826</v>
+        <v>0.3340077664798358</v>
       </c>
       <c r="F21">
-        <v>9.159072425461716</v>
+        <v>9.134320739427892</v>
       </c>
       <c r="G21">
-        <v>8.003463337477541</v>
+        <v>2.715392629044203</v>
       </c>
       <c r="H21">
-        <v>2.593774307462454</v>
+        <v>5.262672112698368</v>
       </c>
       <c r="I21">
-        <v>0.09205152816177531</v>
+        <v>2.59574651112753</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0919938680810084</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.42462979194653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>12.41212051341952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.85145247616046</v>
+        <v>1.852038398036029</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4960077816216995</v>
+        <v>0.4936795614746643</v>
       </c>
       <c r="E22">
-        <v>0.3569579545981654</v>
+        <v>0.356139228853074</v>
       </c>
       <c r="F22">
-        <v>10.37511878659578</v>
+        <v>10.34514822480821</v>
       </c>
       <c r="G22">
-        <v>9.067145933602404</v>
+        <v>3.075719740162356</v>
       </c>
       <c r="H22">
-        <v>2.809774656716016</v>
+        <v>5.960367410786688</v>
       </c>
       <c r="I22">
-        <v>0.0975525705208824</v>
+        <v>2.811804132262154</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09749954868436461</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.60022530085931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>13.58518325008862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.776654984547065</v>
+        <v>1.777239742626705</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.464038468736419</v>
+        <v>0.461912824630005</v>
       </c>
       <c r="E23">
-        <v>0.3450985236466977</v>
+        <v>0.3443171476512177</v>
       </c>
       <c r="F23">
-        <v>9.706069603220584</v>
+        <v>9.679059853687278</v>
       </c>
       <c r="G23">
-        <v>8.481907675373066</v>
+        <v>2.877545777054564</v>
       </c>
       <c r="H23">
-        <v>2.693181004570604</v>
+        <v>5.576495375717769</v>
       </c>
       <c r="I23">
-        <v>0.09461992747456449</v>
+        <v>2.695184607887825</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0945640872659439</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.9628114426441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12.94920514232822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.502093852003441</v>
+        <v>1.502642370350486</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3606864686657758</v>
+        <v>0.3591453180387845</v>
       </c>
       <c r="E24">
-        <v>0.3003582031801884</v>
+        <v>0.2997054184544368</v>
       </c>
       <c r="F24">
-        <v>7.537089113537206</v>
+        <v>7.518316919068468</v>
       </c>
       <c r="G24">
-        <v>6.584717700062043</v>
+        <v>2.233772238745019</v>
       </c>
       <c r="H24">
-        <v>2.276596319064254</v>
+        <v>4.332242562928428</v>
       </c>
       <c r="I24">
-        <v>0.08349677568373082</v>
+        <v>2.278423016916662</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08343631169494969</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.73037742238225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>10.72078613945496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21787092911029</v>
+        <v>1.218348957921847</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2706405394285554</v>
+        <v>0.2695423947710935</v>
       </c>
       <c r="E25">
-        <v>0.2522423699608822</v>
+        <v>0.2517154330803351</v>
       </c>
       <c r="F25">
-        <v>5.651912696846978</v>
+        <v>5.639027033097079</v>
       </c>
       <c r="G25">
-        <v>4.935019996503968</v>
+        <v>1.672072705562186</v>
       </c>
       <c r="H25">
-        <v>1.862882883875855</v>
+        <v>3.251112279239351</v>
       </c>
       <c r="I25">
-        <v>0.07167334870647579</v>
+        <v>1.864441987473981</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07161492739205144</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.546908200689586</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>8.540221858546289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.014970184948623</v>
+        <v>1.855658931070991</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2131214742590828</v>
+        <v>0.09446877336462478</v>
       </c>
       <c r="E2">
-        <v>0.2164017281717037</v>
+        <v>0.121984474961554</v>
       </c>
       <c r="F2">
-        <v>4.466351422352716</v>
+        <v>2.379163444675953</v>
       </c>
       <c r="G2">
-        <v>1.320203651483126</v>
+        <v>0.000810831201212767</v>
       </c>
       <c r="H2">
-        <v>2.576894415297858</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.578952452263096</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06313131882359713</v>
+        <v>0.1815322695079473</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.406328314403368</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.964005926707614</v>
       </c>
       <c r="M2">
-        <v>7.03638416159265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.904402740132198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8794136609385532</v>
+        <v>1.63727900507476</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1784298119060708</v>
+        <v>0.08209006236788241</v>
       </c>
       <c r="E3">
-        <v>0.1924629994844622</v>
+        <v>0.112237907347307</v>
       </c>
       <c r="F3">
-        <v>3.752878111821246</v>
+        <v>2.217908110384315</v>
       </c>
       <c r="G3">
-        <v>1.105352651479379</v>
+        <v>0.0008205658978738225</v>
       </c>
       <c r="H3">
-        <v>2.166825999225495</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.393802225629244</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0575219368692963</v>
+        <v>0.172703497877734</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.214883833362848</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.8354800647848322</v>
       </c>
       <c r="M3">
-        <v>6.054704751510457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.75562885459891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7969452079849191</v>
+        <v>1.505470367168073</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1583481564203311</v>
+        <v>0.07465886319860715</v>
       </c>
       <c r="E4">
-        <v>0.1777579020844584</v>
+        <v>0.1063121681391763</v>
       </c>
       <c r="F4">
-        <v>3.343608394829403</v>
+        <v>2.124843006299741</v>
       </c>
       <c r="G4">
-        <v>0.9817556921826736</v>
+        <v>0.0008266963544790116</v>
       </c>
       <c r="H4">
-        <v>1.931643596784141</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.283302226151221</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05414472819747651</v>
+        <v>0.167317514154405</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.098812305644586</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.7576511584799732</v>
       </c>
       <c r="M4">
-        <v>5.464587626678934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.669225466166907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.763486289042703</v>
+        <v>1.452264001022513</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1504098756632288</v>
+        <v>0.07166549825382873</v>
       </c>
       <c r="E5">
-        <v>0.1717635258843586</v>
+        <v>0.1039083837992649</v>
       </c>
       <c r="F5">
-        <v>3.182747348921339</v>
+        <v>2.088282127174864</v>
       </c>
       <c r="G5">
-        <v>0.9330916388092589</v>
+        <v>0.0008292352167394549</v>
       </c>
       <c r="H5">
-        <v>1.83921575766793</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.238958245047783</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05278491683947983</v>
+        <v>0.1651290609356053</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.051823996292029</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.7261679868230999</v>
       </c>
       <c r="M5">
-        <v>5.226600899203731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.63514274432633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7579382001140118</v>
+        <v>1.443457909912127</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1491049716637463</v>
+        <v>0.07117035070377398</v>
       </c>
       <c r="E6">
-        <v>0.1707680418755686</v>
+        <v>0.1035097994332688</v>
       </c>
       <c r="F6">
-        <v>3.156360055301548</v>
+        <v>2.082289974156822</v>
       </c>
       <c r="G6">
-        <v>0.9251038440816757</v>
+        <v>0.0008296593062864345</v>
       </c>
       <c r="H6">
-        <v>1.824054606676526</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.231633337335239</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05256010022973534</v>
+        <v>0.1647659902140006</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.044038821872775</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.7209531756141132</v>
       </c>
       <c r="M6">
-        <v>5.18721616474113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.629548227693263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7964934255571166</v>
+        <v>1.504750838799708</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1582401775770563</v>
+        <v>0.07461836187895443</v>
       </c>
       <c r="E7">
-        <v>0.177677067922474</v>
+        <v>0.1062797099913944</v>
       </c>
       <c r="F7">
-        <v>3.341416563699283</v>
+        <v>2.12434457633988</v>
       </c>
       <c r="G7">
-        <v>0.9810929586799801</v>
+        <v>0.0008267304270980214</v>
       </c>
       <c r="H7">
-        <v>1.930384174876622</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.282701550803395</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05412632337904633</v>
+        <v>0.1672879770554871</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.098177416990112</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.7572256737983878</v>
       </c>
       <c r="M7">
-        <v>5.461368783062255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.668761395810947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9680428404586792</v>
+        <v>1.779847192348939</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2008654908512852</v>
+        <v>0.09016055901981446</v>
       </c>
       <c r="E8">
-        <v>0.208148828178345</v>
+        <v>0.1186092840546031</v>
       </c>
       <c r="F8">
-        <v>4.213482492471144</v>
+        <v>2.322245617669381</v>
       </c>
       <c r="G8">
-        <v>1.24413494720406</v>
+        <v>0.0008141572264870225</v>
       </c>
       <c r="H8">
-        <v>2.431546697934522</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.514377204577428</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06118307993316208</v>
+        <v>0.1784793242714713</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.339974275630794</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.9194390876187697</v>
       </c>
       <c r="M8">
-        <v>6.694819267305149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.852006142951467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.312961011692948</v>
+        <v>2.34071654430096</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2978237307025466</v>
+        <v>0.1223768234104696</v>
       </c>
       <c r="E9">
-        <v>0.2678740003521938</v>
+        <v>0.143447413659775</v>
       </c>
       <c r="F9">
-        <v>6.230667873487647</v>
+        <v>2.764126844244117</v>
       </c>
       <c r="G9">
-        <v>1.84914923070329</v>
+        <v>0.0007906121880643598</v>
       </c>
       <c r="H9">
-        <v>3.591383156779585</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.000292363034646</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07556433016322117</v>
+        <v>0.2008283549811054</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.828874143254353</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.248220939515903</v>
       </c>
       <c r="M9">
-        <v>9.25453228742586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.256428582730535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.575971198473866</v>
+        <v>2.771109166379347</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3847637783443218</v>
+        <v>0.1477420504141378</v>
       </c>
       <c r="E10">
-        <v>0.3117964460713694</v>
+        <v>0.1624139134170619</v>
       </c>
       <c r="F10">
-        <v>8.057195428167944</v>
+        <v>3.13203347212459</v>
       </c>
       <c r="G10">
-        <v>2.394487402950148</v>
+        <v>0.0007738247044112716</v>
       </c>
       <c r="H10">
-        <v>4.642421225450107</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.388040104825635</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08644869218485951</v>
+        <v>0.2177005413830173</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.201875217026469</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.499576479095481</v>
       </c>
       <c r="M10">
-        <v>11.30196504903842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.590300450802914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.699138546850293</v>
+        <v>2.972259276768057</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4306597090975401</v>
+        <v>0.1598216386706497</v>
       </c>
       <c r="E11">
-        <v>0.3318174651258374</v>
+        <v>0.1712839335173584</v>
       </c>
       <c r="F11">
-        <v>9.022515003029156</v>
+        <v>3.311546048882775</v>
       </c>
       <c r="G11">
-        <v>2.682100748717545</v>
+        <v>0.0007662552283957025</v>
       </c>
       <c r="H11">
-        <v>5.198273155908623</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.57487750866801</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0914471447676064</v>
+        <v>0.2255310674167532</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2.375834655642521</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.616921102421315</v>
       </c>
       <c r="M11">
-        <v>12.29992298675506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.752605243161682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.746463594299343</v>
+        <v>3.04933404627576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.449378551490625</v>
+        <v>0.1644909479270638</v>
       </c>
       <c r="E12">
-        <v>0.3394102464372892</v>
+        <v>0.1746862337916291</v>
       </c>
       <c r="F12">
-        <v>9.415867344420946</v>
+        <v>3.381540250030127</v>
       </c>
       <c r="G12">
-        <v>2.799211168870073</v>
+        <v>0.0007633943049917194</v>
       </c>
       <c r="H12">
-        <v>5.424858205102055</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.647602490536826</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09334155276432909</v>
+        <v>0.2285243490066193</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2.442448950602355</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.661873367607029</v>
       </c>
       <c r="M12">
-        <v>12.69166903654065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.815805163545335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.736237200794619</v>
+        <v>3.032692113844462</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4452779986651194</v>
+        <v>0.1634807953264641</v>
       </c>
       <c r="E13">
-        <v>0.3377743618887834</v>
+        <v>0.1739514033857219</v>
       </c>
       <c r="F13">
-        <v>9.329727330581392</v>
+        <v>3.366371322589828</v>
       </c>
       <c r="G13">
-        <v>2.773569042976732</v>
+        <v>0.0007640102862363762</v>
       </c>
       <c r="H13">
-        <v>5.375234105222404</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.631842344068573</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0929336233882232</v>
+        <v>0.2278783438103957</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2.4280672913698</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.652167636447928</v>
       </c>
       <c r="M13">
-        <v>12.6065897669715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.802112395441767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.703017004533848</v>
+        <v>2.978581328510472</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4321695456237791</v>
+        <v>0.1602037715621663</v>
       </c>
       <c r="E14">
-        <v>0.332441853176654</v>
+        <v>0.1715629180372282</v>
       </c>
       <c r="F14">
-        <v>9.054253408660429</v>
+        <v>3.317262407311802</v>
       </c>
       <c r="G14">
-        <v>2.691551735195048</v>
+        <v>0.0007660197750486016</v>
       </c>
       <c r="H14">
-        <v>5.216553740991543</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.580817656026383</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09160301378120295</v>
+        <v>0.2257767284228862</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2.381299450881627</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.62060847110979</v>
       </c>
       <c r="M14">
-        <v>12.33184185647994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.757768391494452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682764322057835</v>
+        <v>2.945558838481645</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4243314289164601</v>
+        <v>0.1582094381868586</v>
       </c>
       <c r="E15">
-        <v>0.3291772469507066</v>
+        <v>0.1701058367072008</v>
       </c>
       <c r="F15">
-        <v>8.889469812046514</v>
+        <v>3.287453101159429</v>
       </c>
       <c r="G15">
-        <v>2.642479449202881</v>
+        <v>0.0007672512227000046</v>
       </c>
       <c r="H15">
-        <v>5.121645727232959</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.549837962434097</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09078795180365518</v>
+        <v>0.224493265254651</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2.352753130403613</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.60134755741592</v>
       </c>
       <c r="M15">
-        <v>12.16551933672983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.730840558099501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.568006440976689</v>
+        <v>2.75808234401137</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3819234876358308</v>
+        <v>0.1469649142855474</v>
       </c>
       <c r="E16">
-        <v>0.3104892075020729</v>
+        <v>0.161839810607546</v>
       </c>
       <c r="F16">
-        <v>7.997442515414406</v>
+        <v>3.120568534646992</v>
       </c>
       <c r="G16">
-        <v>2.376672815007652</v>
+        <v>0.000774320395489834</v>
       </c>
       <c r="H16">
-        <v>4.608023373656437</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.376076213209799</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08612263374898532</v>
+        <v>0.2171923878848503</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.190602873970491</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.491975094161717</v>
       </c>
       <c r="M16">
-        <v>11.23840266377888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.579922895785273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498614643581135</v>
+        <v>2.644533589400737</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3577716018466077</v>
+        <v>0.1402166835916603</v>
       </c>
       <c r="E17">
-        <v>0.2990377159476765</v>
+        <v>0.1568365490661634</v>
       </c>
       <c r="F17">
-        <v>7.489428683626215</v>
+        <v>3.021481771318548</v>
       </c>
       <c r="G17">
-        <v>2.225152933830202</v>
+        <v>0.0007786715252003045</v>
       </c>
       <c r="H17">
-        <v>4.315616763095051</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.272436348643637</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08327022298060527</v>
+        <v>0.212757062816074</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.09230772845541</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.425703877767575</v>
       </c>
       <c r="M17">
-        <v>10.68911607664072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.490169358403918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.459020335124706</v>
+        <v>2.579719135526091</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3444430640251994</v>
+        <v>0.1363849966573554</v>
       </c>
       <c r="E18">
-        <v>0.292454461253449</v>
+        <v>0.1539809961422094</v>
       </c>
       <c r="F18">
-        <v>7.209206475757867</v>
+        <v>2.965615016682847</v>
       </c>
       <c r="G18">
-        <v>2.141522828074983</v>
+        <v>0.0007811807924160146</v>
       </c>
       <c r="H18">
-        <v>4.154354521069337</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.213772926590295</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08163449071436091</v>
+        <v>0.2102202027799578</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.03616531145147</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.387863203600773</v>
       </c>
       <c r="M18">
-        <v>10.37910615699306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.439510460764268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.445664642877091</v>
+        <v>2.557855485927973</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3400173327841856</v>
+        <v>0.1350957119573621</v>
       </c>
       <c r="E19">
-        <v>0.290225955865175</v>
+        <v>0.153017727163796</v>
       </c>
       <c r="F19">
-        <v>7.116191163859099</v>
+        <v>2.94688519062916</v>
       </c>
       <c r="G19">
-        <v>2.113754426442597</v>
+        <v>0.0007820316408289087</v>
       </c>
       <c r="H19">
-        <v>4.100830681880808</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.194061697805566</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08108159492520173</v>
+        <v>0.209363550121985</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.017220693060992</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.375096157073699</v>
       </c>
       <c r="M19">
-        <v>10.27506193561908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.42251723105494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.505967534311225</v>
+        <v>2.656568835122243</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3602819540561626</v>
+        <v>0.1409297828079161</v>
       </c>
       <c r="E20">
-        <v>0.3002563750135181</v>
+        <v>0.1573668003904238</v>
       </c>
       <c r="F20">
-        <v>7.542220352318907</v>
+        <v>3.031911432239923</v>
       </c>
       <c r="G20">
-        <v>2.240903945490288</v>
+        <v>0.0007782076840787688</v>
       </c>
       <c r="H20">
-        <v>4.345999674009789</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.283368093537618</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08357338409018311</v>
+        <v>0.2132277006784449</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.10272975920158</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.432729342568507</v>
       </c>
       <c r="M20">
-        <v>10.74695106186132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.499622283273041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.712754216836828</v>
+        <v>2.994449304288651</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4359788289641386</v>
+        <v>0.1611635814773962</v>
       </c>
       <c r="E21">
-        <v>0.3340077664798358</v>
+        <v>0.1722632197300165</v>
       </c>
       <c r="F21">
-        <v>9.134320739427892</v>
+        <v>3.331629803088418</v>
       </c>
       <c r="G21">
-        <v>2.715392629044203</v>
+        <v>0.0007654294274155909</v>
       </c>
       <c r="H21">
-        <v>5.262672112698368</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.59574651112753</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0919938680810084</v>
+        <v>0.2263932125512866</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.395015141028608</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.629863407966752</v>
       </c>
       <c r="M21">
-        <v>12.41212051341952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.77074402363472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.852038398036029</v>
+        <v>3.22061639435401</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4936795614746643</v>
+        <v>0.1749517208772176</v>
       </c>
       <c r="E22">
-        <v>0.356139228853074</v>
+        <v>0.1822570911306656</v>
       </c>
       <c r="F22">
-        <v>10.34514822480821</v>
+        <v>3.539423912794803</v>
       </c>
       <c r="G22">
-        <v>3.075719740162356</v>
+        <v>0.0007571075782047582</v>
       </c>
       <c r="H22">
-        <v>5.960367410786688</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.811804132262154</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09749954868436461</v>
+        <v>0.2351644445174372</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.5904237677222</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.761761078637392</v>
       </c>
       <c r="M22">
-        <v>13.58518325008862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.958210730486257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.777239742626705</v>
+        <v>3.099368993182679</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.461912824630005</v>
+        <v>0.1675346014235544</v>
       </c>
       <c r="E23">
-        <v>0.3443171476512177</v>
+        <v>0.1768962973138848</v>
       </c>
       <c r="F23">
-        <v>9.679059853687278</v>
+        <v>3.427330340076082</v>
       </c>
       <c r="G23">
-        <v>2.877545777054564</v>
+        <v>0.0007615479634044409</v>
       </c>
       <c r="H23">
-        <v>5.576495375717769</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.695184607887825</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0945640872659439</v>
+        <v>0.230465649946261</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2.485683231979067</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.691053379744488</v>
       </c>
       <c r="M23">
-        <v>12.94920514232822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.857127172456259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.502642370350486</v>
+        <v>2.651126258069098</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3591453180387845</v>
+        <v>0.1406072425286027</v>
       </c>
       <c r="E24">
-        <v>0.2997054184544368</v>
+        <v>0.1571270093319015</v>
       </c>
       <c r="F24">
-        <v>7.518316919068468</v>
+        <v>3.027192777537067</v>
       </c>
       <c r="G24">
-        <v>2.233772238745019</v>
+        <v>0.0007784173622758457</v>
       </c>
       <c r="H24">
-        <v>4.332242562928428</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.278423016916662</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08343631169494969</v>
+        <v>0.2130148850146441</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.098016819594662</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.429552327782091</v>
       </c>
       <c r="M24">
-        <v>10.72078613945496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.49534570066956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.218348957921847</v>
+        <v>2.186188792898974</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2695423947710935</v>
+        <v>0.1134151942134878</v>
       </c>
       <c r="E25">
-        <v>0.2517154330803351</v>
+        <v>0.1366276013059711</v>
       </c>
       <c r="F25">
-        <v>5.639027033097079</v>
+        <v>2.63782591399945</v>
       </c>
       <c r="G25">
-        <v>1.672072705562186</v>
+        <v>0.000796878764753218</v>
       </c>
       <c r="H25">
-        <v>3.251112279239351</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.864441987473981</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07161492739205144</v>
+        <v>0.1947197854255691</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.694575556502073</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.157819268946213</v>
       </c>
       <c r="M25">
-        <v>8.540221858546289</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.141310050124716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.855658931070991</v>
+        <v>0.271082003303718</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09446877336462478</v>
+        <v>0.0120266655444965</v>
       </c>
       <c r="E2">
-        <v>0.121984474961554</v>
+        <v>1.428285877360338</v>
       </c>
       <c r="F2">
-        <v>2.379163444675953</v>
+        <v>1.054532243501527</v>
       </c>
       <c r="G2">
-        <v>0.000810831201212767</v>
+        <v>1.011375455960206</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5861233451800985</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1815322695079473</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.406328314403368</v>
+        <v>3.056876168993853</v>
       </c>
       <c r="L2">
-        <v>0.964005926707614</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.904402740132198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.63727900507476</v>
+        <v>0.2366688592141912</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08209006236788241</v>
+        <v>0.01272622936616408</v>
       </c>
       <c r="E3">
-        <v>0.112237907347307</v>
+        <v>1.221606332792021</v>
       </c>
       <c r="F3">
-        <v>2.217908110384315</v>
+        <v>0.9448430489067192</v>
       </c>
       <c r="G3">
-        <v>0.0008205658978738225</v>
+        <v>0.901598794070523</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.5443476573453836</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.172703497877734</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.214883833362848</v>
+        <v>2.65676606714311</v>
       </c>
       <c r="L3">
-        <v>0.8354800647848322</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.75562885459891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.505470367168073</v>
+        <v>0.2157553349955634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07465886319860715</v>
+        <v>0.01317772584676113</v>
       </c>
       <c r="E4">
-        <v>0.1063121681391763</v>
+        <v>1.097813895125967</v>
       </c>
       <c r="F4">
-        <v>2.124843006299741</v>
+        <v>0.8804319209481974</v>
       </c>
       <c r="G4">
-        <v>0.0008266963544790116</v>
+        <v>0.8373410053452091</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5203837350381377</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.167317514154405</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.098812305644586</v>
+        <v>2.413062937341152</v>
       </c>
       <c r="L4">
-        <v>0.7576511584799732</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.669225466166907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452264001022513</v>
+        <v>0.207281221337368</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07166549825382873</v>
+        <v>0.01336668369133243</v>
       </c>
       <c r="E5">
-        <v>0.1039083837992649</v>
+        <v>1.048024789554475</v>
       </c>
       <c r="F5">
-        <v>2.088282127174864</v>
+        <v>0.8548480397997906</v>
       </c>
       <c r="G5">
-        <v>0.0008292352167394549</v>
+        <v>0.811863787711431</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5110045594380495</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1651290609356053</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.051823996292029</v>
+        <v>2.314140562968078</v>
       </c>
       <c r="L5">
-        <v>0.7261679868230999</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.63514274432633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.443457909912127</v>
+        <v>0.2058768500193935</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07117035070377398</v>
+        <v>0.0133983455784481</v>
       </c>
       <c r="E6">
-        <v>0.1035097994332688</v>
+        <v>1.039793648543593</v>
       </c>
       <c r="F6">
-        <v>2.082289974156822</v>
+        <v>0.8506379064506433</v>
       </c>
       <c r="G6">
-        <v>0.0008296593062864345</v>
+        <v>0.8076738179542673</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5094694446652142</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1647659902140006</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.044038821872775</v>
+        <v>2.297735144387815</v>
       </c>
       <c r="L6">
-        <v>0.7209531756141132</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.629548227693263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.504750838799708</v>
+        <v>0.2156408622165742</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07461836187895443</v>
+        <v>0.01318025474617457</v>
       </c>
       <c r="E7">
-        <v>0.1062797099913944</v>
+        <v>1.097139915657692</v>
       </c>
       <c r="F7">
-        <v>2.12434457633988</v>
+        <v>0.8800842926698351</v>
       </c>
       <c r="G7">
-        <v>0.0008267304270980214</v>
+        <v>0.8369946465592335</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5202557275481894</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1672879770554871</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.098177416990112</v>
+        <v>2.411727394711988</v>
       </c>
       <c r="L7">
-        <v>0.7572256737983878</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.668761395810947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.779847192348939</v>
+        <v>0.2591676638089098</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09016055901981446</v>
+        <v>0.01226295621761864</v>
       </c>
       <c r="E8">
-        <v>0.1186092840546031</v>
+        <v>1.356298040408007</v>
       </c>
       <c r="F8">
-        <v>2.322245617669381</v>
+        <v>1.016054442958961</v>
       </c>
       <c r="G8">
-        <v>0.0008141572264870225</v>
+        <v>0.9728195247310794</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5713452397880872</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1784793242714713</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.339974275630794</v>
+        <v>2.918443194443228</v>
       </c>
       <c r="L8">
-        <v>0.9194390876187697</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.852006142951467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.34071654430096</v>
+        <v>0.3465407365607405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1223768234104696</v>
+        <v>0.01066856692493978</v>
       </c>
       <c r="E9">
-        <v>0.143447413659775</v>
+        <v>1.895610640810858</v>
       </c>
       <c r="F9">
-        <v>2.764126844244117</v>
+        <v>1.309763955298322</v>
       </c>
       <c r="G9">
-        <v>0.0007906121880643598</v>
+        <v>1.268289010408353</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6868143065804304</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2008283549811054</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.828874143254353</v>
+        <v>3.933099800900663</v>
       </c>
       <c r="L9">
-        <v>1.248220939515903</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.256428582730535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.771109166379347</v>
+        <v>0.4124277170272563</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1477420504141378</v>
+        <v>0.009673768546987205</v>
       </c>
       <c r="E10">
-        <v>0.1624139134170619</v>
+        <v>2.321275041884846</v>
       </c>
       <c r="F10">
-        <v>3.13203347212459</v>
+        <v>1.547982588822947</v>
       </c>
       <c r="G10">
-        <v>0.0007738247044112716</v>
+        <v>1.509693606443676</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7839692953953943</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2177005413830173</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.201875217026469</v>
+        <v>4.699962874435357</v>
       </c>
       <c r="L10">
-        <v>1.499576479095481</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.590300450802914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.972259276768057</v>
+        <v>0.4428854862995593</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1598216386706497</v>
+        <v>0.009274772896111116</v>
       </c>
       <c r="E11">
-        <v>0.1712839335173584</v>
+        <v>2.524177542140251</v>
       </c>
       <c r="F11">
-        <v>3.311546048882775</v>
+        <v>1.662778414097602</v>
       </c>
       <c r="G11">
-        <v>0.0007662552283957025</v>
+        <v>1.626524570589424</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.8316322775147853</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2255310674167532</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.375834655642521</v>
+        <v>5.05574705989153</v>
       </c>
       <c r="L11">
-        <v>1.616921102421315</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.752605243161682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.04933404627576</v>
+        <v>0.4544996629130367</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1644909479270638</v>
+        <v>0.009133014547083818</v>
       </c>
       <c r="E12">
-        <v>0.1746862337916291</v>
+        <v>2.602635890524439</v>
       </c>
       <c r="F12">
-        <v>3.381540250030127</v>
+        <v>1.707325499533979</v>
       </c>
       <c r="G12">
-        <v>0.0007633943049917194</v>
+        <v>1.67194422687399</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8502572221954949</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2285243490066193</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.442448950602355</v>
+        <v>5.191693511351502</v>
       </c>
       <c r="L12">
-        <v>1.661873367607029</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.815805163545335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.032692113844462</v>
+        <v>0.4519945797180753</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1634807953264641</v>
+        <v>0.009163099840655775</v>
       </c>
       <c r="E13">
-        <v>0.1739514033857219</v>
+        <v>2.585661058109281</v>
       </c>
       <c r="F13">
-        <v>3.366371322589828</v>
+        <v>1.697680948830822</v>
       </c>
       <c r="G13">
-        <v>0.0007640102862363762</v>
+        <v>1.662106905743116</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8462190273924648</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2278783438103957</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>2.4280672913698</v>
+        <v>5.162356910620872</v>
       </c>
       <c r="L13">
-        <v>1.652167636447928</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.802112395441767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.978581328510472</v>
+        <v>0.443839313171182</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1602037715621663</v>
+        <v>0.009262912692587832</v>
       </c>
       <c r="E14">
-        <v>0.1715629180372282</v>
+        <v>2.530597960066657</v>
       </c>
       <c r="F14">
-        <v>3.317262407311802</v>
+        <v>1.666420805226934</v>
       </c>
       <c r="G14">
-        <v>0.0007660197750486016</v>
+        <v>1.630236594163136</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8331525327540135</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2257767284228862</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.381299450881627</v>
+        <v>5.066905640211417</v>
       </c>
       <c r="L14">
-        <v>1.62060847110979</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.757768391494452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.945558838481645</v>
+        <v>0.4388547953139437</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1582094381868586</v>
+        <v>0.009325320802298975</v>
       </c>
       <c r="E15">
-        <v>0.1701058367072008</v>
+        <v>2.49709120798228</v>
       </c>
       <c r="F15">
-        <v>3.287453101159429</v>
+        <v>1.647418140045446</v>
       </c>
       <c r="G15">
-        <v>0.0007672512227000046</v>
+        <v>1.610874031009104</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8252264413904697</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.224493265254651</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2.352753130403613</v>
+        <v>5.008604849246126</v>
       </c>
       <c r="L15">
-        <v>1.60134755741592</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.730840558099501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.75808234401137</v>
+        <v>0.4104478840789199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1469649142855474</v>
+        <v>0.009701053136327076</v>
       </c>
       <c r="E16">
-        <v>0.161839810607546</v>
+        <v>2.308225055187734</v>
       </c>
       <c r="F16">
-        <v>3.120568534646992</v>
+        <v>1.540622262242664</v>
       </c>
       <c r="G16">
-        <v>0.000774320395489834</v>
+        <v>1.502213510254194</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7809305310360344</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2171923878848503</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.190602873970491</v>
+        <v>4.676869261512479</v>
       </c>
       <c r="L16">
-        <v>1.491975094161717</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.579922895785273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.644533589400737</v>
+        <v>0.3931527267406238</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1402166835916603</v>
+        <v>0.009946323839095328</v>
       </c>
       <c r="E17">
-        <v>0.1568365490661634</v>
+        <v>2.194926306994603</v>
       </c>
       <c r="F17">
-        <v>3.021481771318548</v>
+        <v>1.476854337569605</v>
       </c>
       <c r="G17">
-        <v>0.0007786715252003045</v>
+        <v>1.437463395504125</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7546959466780265</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.212757062816074</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.09230772845541</v>
+        <v>4.475283675784965</v>
       </c>
       <c r="L17">
-        <v>1.425703877767575</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.490169358403918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.579719135526091</v>
+        <v>0.3832499978469599</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1363849966573554</v>
+        <v>0.01009232082941125</v>
       </c>
       <c r="E18">
-        <v>0.1539809961422094</v>
+        <v>2.130611805896237</v>
       </c>
       <c r="F18">
-        <v>2.965615016682847</v>
+        <v>1.440771542169756</v>
       </c>
       <c r="G18">
-        <v>0.0007811807924160146</v>
+        <v>1.40086959514764</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7399275482842143</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2102202027799578</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.03616531145147</v>
+        <v>4.359974600434896</v>
       </c>
       <c r="L18">
-        <v>1.387863203600773</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.439510460764268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.557855485927973</v>
+        <v>0.3799045246276052</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1350957119573621</v>
+        <v>0.0101425542497342</v>
       </c>
       <c r="E19">
-        <v>0.153017727163796</v>
+        <v>2.108974293555278</v>
       </c>
       <c r="F19">
-        <v>2.94688519062916</v>
+        <v>1.428652415769051</v>
       </c>
       <c r="G19">
-        <v>0.0007820316408289087</v>
+        <v>1.388586221775995</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.734980183262735</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.209363550121985</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.017220693060992</v>
+        <v>4.321036222527425</v>
       </c>
       <c r="L19">
-        <v>1.375096157073699</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.42251723105494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.656568835122243</v>
+        <v>0.3949890961228704</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1409297828079161</v>
+        <v>0.009919694017401781</v>
       </c>
       <c r="E20">
-        <v>0.1573668003904238</v>
+        <v>2.206897034036913</v>
       </c>
       <c r="F20">
-        <v>3.031911432239923</v>
+        <v>1.483579949543753</v>
       </c>
       <c r="G20">
-        <v>0.0007782076840787688</v>
+        <v>1.444287863693717</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7574549114983142</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2132277006784449</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.10272975920158</v>
+        <v>4.496675314907463</v>
       </c>
       <c r="L20">
-        <v>1.432729342568507</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.499622283273041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.994449304288651</v>
+        <v>0.4462324373066195</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1611635814773962</v>
+        <v>0.009233327174744232</v>
       </c>
       <c r="E21">
-        <v>0.1722632197300165</v>
+        <v>2.546724676573518</v>
       </c>
       <c r="F21">
-        <v>3.331629803088418</v>
+        <v>1.675572129508154</v>
       </c>
       <c r="G21">
-        <v>0.0007654294274155909</v>
+        <v>1.639564217815973</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.836974169789471</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2263932125512866</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2.395015141028608</v>
+        <v>5.094906980487622</v>
       </c>
       <c r="L21">
-        <v>1.629863407966752</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.77074402363472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.22061639435401</v>
+        <v>0.4801978935459914</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1749517208772176</v>
+        <v>0.00884017474676746</v>
       </c>
       <c r="E22">
-        <v>0.1822570911306656</v>
+        <v>2.778461329943525</v>
       </c>
       <c r="F22">
-        <v>3.539423912794803</v>
+        <v>1.807412090408903</v>
       </c>
       <c r="G22">
-        <v>0.0007571075782047582</v>
+        <v>1.774155110860619</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8923469834664388</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2351644445174372</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>2.5904237677222</v>
+        <v>5.493118397474916</v>
       </c>
       <c r="L22">
-        <v>1.761761078637392</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.958210730486257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.099368993182679</v>
+        <v>0.4620225759836671</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1675346014235544</v>
+        <v>0.009044299538889078</v>
       </c>
       <c r="E23">
-        <v>0.1768962973138848</v>
+        <v>2.653786274019879</v>
       </c>
       <c r="F23">
-        <v>3.427330340076082</v>
+        <v>1.736408099691246</v>
       </c>
       <c r="G23">
-        <v>0.0007615479634044409</v>
+        <v>1.701620911321726</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8624533356201312</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.230465649946261</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2.485683231979067</v>
+        <v>5.279841189497517</v>
       </c>
       <c r="L23">
-        <v>1.691053379744488</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.857127172456259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.651126258069098</v>
+        <v>0.3941587482066353</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1406072425286027</v>
+        <v>0.00993171794356229</v>
       </c>
       <c r="E24">
-        <v>0.1571270093319015</v>
+        <v>2.201482527797964</v>
       </c>
       <c r="F24">
-        <v>3.027192777537067</v>
+        <v>1.480537510479436</v>
       </c>
       <c r="G24">
-        <v>0.0007784173622758457</v>
+        <v>1.441200565859788</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7562066105008114</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2130148850146441</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.098016819594662</v>
+        <v>4.487002348480019</v>
       </c>
       <c r="L24">
-        <v>1.429552327782091</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.49534570066956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.186188792898974</v>
+        <v>0.3226427465497181</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1134151942134878</v>
+        <v>0.01107326393109176</v>
       </c>
       <c r="E25">
-        <v>0.1366276013059711</v>
+        <v>1.745396427323342</v>
       </c>
       <c r="F25">
-        <v>2.63782591399945</v>
+        <v>1.226841647023434</v>
       </c>
       <c r="G25">
-        <v>0.000796878764753218</v>
+        <v>1.184610522003169</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6536533502304565</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1947197854255691</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.694575556502073</v>
+        <v>3.655540048617411</v>
       </c>
       <c r="L25">
-        <v>1.157819268946213</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.141310050124716</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.271082003303718</v>
+        <v>0.1424151111754526</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0120266655444965</v>
+        <v>0.01443668439061518</v>
       </c>
       <c r="E2">
-        <v>1.428285877360338</v>
+        <v>0.4178968709247641</v>
       </c>
       <c r="F2">
-        <v>1.054532243501527</v>
+        <v>0.8588185927887366</v>
       </c>
       <c r="G2">
-        <v>1.011375455960206</v>
+        <v>0.7181621447065254</v>
       </c>
       <c r="H2">
-        <v>0.5861233451800985</v>
+        <v>0.7488212154705138</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.056876168993853</v>
+        <v>0.9119527343079596</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2366688592141912</v>
+        <v>0.1329425658592243</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01272622936616408</v>
+        <v>0.01451165562322032</v>
       </c>
       <c r="E3">
-        <v>1.221606332792021</v>
+        <v>0.3643918641718642</v>
       </c>
       <c r="F3">
-        <v>0.9448430489067192</v>
+        <v>0.838997368744117</v>
       </c>
       <c r="G3">
-        <v>0.901598794070523</v>
+        <v>0.697448958700349</v>
       </c>
       <c r="H3">
-        <v>0.5443476573453836</v>
+        <v>0.7452179121359848</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.65676606714311</v>
+        <v>0.7949186235302363</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2157553349955634</v>
+        <v>0.1271988809211138</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01317772584676113</v>
+        <v>0.01456171990234267</v>
       </c>
       <c r="E4">
-        <v>1.097813895125967</v>
+        <v>0.3316558605631457</v>
       </c>
       <c r="F4">
-        <v>0.8804319209481974</v>
+        <v>0.8275570947214419</v>
       </c>
       <c r="G4">
-        <v>0.8373410053452091</v>
+        <v>0.6854153286938782</v>
       </c>
       <c r="H4">
-        <v>0.5203837350381377</v>
+        <v>0.7435364794493609</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.413062937341152</v>
+        <v>0.7229519513519165</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207281221337368</v>
+        <v>0.1248766121654654</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01336668369133243</v>
+        <v>0.01458313608027773</v>
       </c>
       <c r="E5">
-        <v>1.048024789554475</v>
+        <v>0.3183424719556029</v>
       </c>
       <c r="F5">
-        <v>0.8548480397997906</v>
+        <v>0.8230772890839688</v>
       </c>
       <c r="G5">
-        <v>0.811863787711431</v>
+        <v>0.6806819383414506</v>
       </c>
       <c r="H5">
-        <v>0.5110045594380495</v>
+        <v>0.7429841627452163</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.314140562968078</v>
+        <v>0.6935976462954443</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2058768500193935</v>
+        <v>0.1244921112266155</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0133983455784481</v>
+        <v>0.01458675353427097</v>
       </c>
       <c r="E6">
-        <v>1.039793648543593</v>
+        <v>0.3161333415720549</v>
       </c>
       <c r="F6">
-        <v>0.8506379064506433</v>
+        <v>0.8223443850476428</v>
       </c>
       <c r="G6">
-        <v>0.8076738179542673</v>
+        <v>0.6799062060889014</v>
       </c>
       <c r="H6">
-        <v>0.5094694446652142</v>
+        <v>0.7429004578237226</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.297735144387815</v>
+        <v>0.6887217285355405</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2156408622165742</v>
+        <v>0.1271674876436606</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01318025474617457</v>
+        <v>0.01456200461994328</v>
       </c>
       <c r="E7">
-        <v>1.097139915657692</v>
+        <v>0.3314762062300503</v>
       </c>
       <c r="F7">
-        <v>0.8800842926698351</v>
+        <v>0.8274959426062054</v>
       </c>
       <c r="G7">
-        <v>0.8369946465592335</v>
+        <v>0.6853508047655197</v>
       </c>
       <c r="H7">
-        <v>0.5202557275481894</v>
+        <v>0.7435284935495616</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.411727394711988</v>
+        <v>0.7225561798745161</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591676638089098</v>
+        <v>0.1391339872389921</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01226295621761864</v>
+        <v>0.0144616979586516</v>
       </c>
       <c r="E8">
-        <v>1.356298040408007</v>
+        <v>0.3994227176412579</v>
       </c>
       <c r="F8">
-        <v>1.016054442958961</v>
+        <v>0.8518318779889427</v>
       </c>
       <c r="G8">
-        <v>0.9728195247310794</v>
+        <v>0.7108771843748087</v>
       </c>
       <c r="H8">
-        <v>0.5713452397880872</v>
+        <v>0.7474681922807633</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.918443194443228</v>
+        <v>0.8716213881060355</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3465407365607405</v>
+        <v>0.1631724843750817</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01066856692493978</v>
+        <v>0.01429699053659128</v>
       </c>
       <c r="E9">
-        <v>1.895610640810858</v>
+        <v>0.5337051909546773</v>
       </c>
       <c r="F9">
-        <v>1.309763955298322</v>
+        <v>0.9054127890319421</v>
       </c>
       <c r="G9">
-        <v>1.268289010408353</v>
+        <v>0.7664433230853547</v>
       </c>
       <c r="H9">
-        <v>0.6868143065804304</v>
+        <v>0.7594379314803916</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.933099800900663</v>
+        <v>1.163117941388009</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4124277170272563</v>
+        <v>0.1811804329263538</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009673768546987205</v>
+        <v>0.01419554867388939</v>
       </c>
       <c r="E10">
-        <v>2.321275041884846</v>
+        <v>0.6331678527653679</v>
       </c>
       <c r="F10">
-        <v>1.547982588822947</v>
+        <v>0.9484462813745012</v>
       </c>
       <c r="G10">
-        <v>1.509693606443676</v>
+        <v>0.8107405677280894</v>
       </c>
       <c r="H10">
-        <v>0.7839692953953943</v>
+        <v>0.7708640545827166</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.699962874435357</v>
+        <v>1.37684716269365</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4428854862995593</v>
+        <v>0.1894477564342196</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009274772896111116</v>
+        <v>0.01415367986103533</v>
       </c>
       <c r="E11">
-        <v>2.524177542140251</v>
+        <v>0.6786289171441666</v>
       </c>
       <c r="F11">
-        <v>1.662778414097602</v>
+        <v>0.9688409186484961</v>
       </c>
       <c r="G11">
-        <v>1.626524570589424</v>
+        <v>0.8316717099166908</v>
       </c>
       <c r="H11">
-        <v>0.8316322775147853</v>
+        <v>0.7766434580529449</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.05574705989153</v>
+        <v>1.474000398213832</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4544996629130367</v>
+        <v>0.1925891547395793</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009133014547083818</v>
+        <v>0.01413844401657016</v>
       </c>
       <c r="E12">
-        <v>2.602635890524439</v>
+        <v>0.6958777122517716</v>
       </c>
       <c r="F12">
-        <v>1.707325499533979</v>
+        <v>0.9766831656735491</v>
       </c>
       <c r="G12">
-        <v>1.67194422687399</v>
+        <v>0.839711919813368</v>
       </c>
       <c r="H12">
-        <v>0.8502572221954949</v>
+        <v>0.7789163732803388</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.191693511351502</v>
+        <v>1.510780179962978</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4519945797180753</v>
+        <v>0.1919121222641422</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009163099840655775</v>
+        <v>0.0141416977291513</v>
       </c>
       <c r="E13">
-        <v>2.585661058109281</v>
+        <v>0.6921613334265402</v>
       </c>
       <c r="F13">
-        <v>1.697680948830822</v>
+        <v>0.9749888694867224</v>
       </c>
       <c r="G13">
-        <v>1.662106905743116</v>
+        <v>0.8379752149447484</v>
       </c>
       <c r="H13">
-        <v>0.8462190273924648</v>
+        <v>0.7784230954931388</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.162356910620872</v>
+        <v>1.502859434076015</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.443839313171182</v>
+        <v>0.1897059864550101</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009262912692587832</v>
+        <v>0.01415241396862044</v>
       </c>
       <c r="E14">
-        <v>2.530597960066657</v>
+        <v>0.6800472950032201</v>
       </c>
       <c r="F14">
-        <v>1.666420805226934</v>
+        <v>0.9694837063866544</v>
       </c>
       <c r="G14">
-        <v>1.630236594163136</v>
+        <v>0.8323308865575427</v>
       </c>
       <c r="H14">
-        <v>0.8331525327540135</v>
+        <v>0.7768287567407697</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.066905640211417</v>
+        <v>1.477026491220329</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4388547953139437</v>
+        <v>0.1883560605112393</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009325320802298975</v>
+        <v>0.01415905871039413</v>
       </c>
       <c r="E15">
-        <v>2.49709120798228</v>
+        <v>0.6726315650329298</v>
       </c>
       <c r="F15">
-        <v>1.647418140045446</v>
+        <v>0.966127209693056</v>
       </c>
       <c r="G15">
-        <v>1.610874031009104</v>
+        <v>0.8288884794347382</v>
       </c>
       <c r="H15">
-        <v>0.8252264413904697</v>
+        <v>0.7758631893521795</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.008604849246126</v>
+        <v>1.461201775737038</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4104478840789199</v>
+        <v>0.1806416526886494</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.009701053136327076</v>
+        <v>0.0141983712867102</v>
       </c>
       <c r="E16">
-        <v>2.308225055187734</v>
+        <v>0.6302014265967273</v>
       </c>
       <c r="F16">
-        <v>1.540622262242664</v>
+        <v>0.947130045510022</v>
       </c>
       <c r="G16">
-        <v>1.502213510254194</v>
+        <v>0.8093885249269874</v>
       </c>
       <c r="H16">
-        <v>0.7809305310360344</v>
+        <v>0.770498123972601</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.676869261512479</v>
+        <v>1.370496537373413</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3931527267406238</v>
+        <v>0.1759283562378045</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009946323839095328</v>
+        <v>0.01422358635643661</v>
       </c>
       <c r="E17">
-        <v>2.194926306994603</v>
+        <v>0.6042289279725424</v>
       </c>
       <c r="F17">
-        <v>1.476854337569605</v>
+        <v>0.9356866283153806</v>
       </c>
       <c r="G17">
-        <v>1.437463395504125</v>
+        <v>0.7976270583305052</v>
       </c>
       <c r="H17">
-        <v>0.7546959466780265</v>
+        <v>0.7673563215049057</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.475283675784965</v>
+        <v>1.314833386063185</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3832499978469599</v>
+        <v>0.1732244974942603</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01009232082941125</v>
+        <v>0.01423849174496183</v>
       </c>
       <c r="E18">
-        <v>2.130611805896237</v>
+        <v>0.5893103029655151</v>
       </c>
       <c r="F18">
-        <v>1.440771542169756</v>
+        <v>0.929181624126258</v>
       </c>
       <c r="G18">
-        <v>1.40086959514764</v>
+        <v>0.7909354886209599</v>
       </c>
       <c r="H18">
-        <v>0.7399275482842143</v>
+        <v>0.7656039379382094</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.359974600434896</v>
+        <v>1.282810485814878</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3799045246276052</v>
+        <v>0.1723102407663504</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0101425542497342</v>
+        <v>0.01424360745325615</v>
       </c>
       <c r="E19">
-        <v>2.108974293555278</v>
+        <v>0.5842624764112117</v>
       </c>
       <c r="F19">
-        <v>1.428652415769051</v>
+        <v>0.9269923103352085</v>
       </c>
       <c r="G19">
-        <v>1.388586221775995</v>
+        <v>0.7886823734580162</v>
       </c>
       <c r="H19">
-        <v>0.734980183262735</v>
+        <v>0.7650199827868391</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.321036222527425</v>
+        <v>1.271966877819182</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3949890961228704</v>
+        <v>0.1764293601259084</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009919694017401781</v>
+        <v>0.01422086050396487</v>
       </c>
       <c r="E20">
-        <v>2.206897034036913</v>
+        <v>0.6069916477884618</v>
       </c>
       <c r="F20">
-        <v>1.483579949543753</v>
+        <v>0.9368968248045775</v>
       </c>
       <c r="G20">
-        <v>1.444287863693717</v>
+        <v>0.7988714852960186</v>
       </c>
       <c r="H20">
-        <v>0.7574549114983142</v>
+        <v>0.7676851053350617</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.496675314907463</v>
+        <v>1.320759537080676</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4462324373066195</v>
+        <v>0.1903536912892605</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009233327174744232</v>
+        <v>0.01414924951573582</v>
       </c>
       <c r="E21">
-        <v>2.546724676573518</v>
+        <v>0.683604545553905</v>
       </c>
       <c r="F21">
-        <v>1.675572129508154</v>
+        <v>0.9710974577167519</v>
       </c>
       <c r="G21">
-        <v>1.639564217815973</v>
+        <v>0.8339856526763754</v>
       </c>
       <c r="H21">
-        <v>0.836974169789471</v>
+        <v>0.77729475662494</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.094906980487622</v>
+        <v>1.484614521059825</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4801978935459914</v>
+        <v>0.1995166141811922</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.00884017474676746</v>
+        <v>0.0141060577748533</v>
       </c>
       <c r="E22">
-        <v>2.778461329943525</v>
+        <v>0.7338731084087584</v>
       </c>
       <c r="F22">
-        <v>1.807412090408903</v>
+        <v>0.9941452992306949</v>
       </c>
       <c r="G22">
-        <v>1.774155110860619</v>
+        <v>0.8576003821598874</v>
       </c>
       <c r="H22">
-        <v>0.8923469834664388</v>
+        <v>0.7840674058667219</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.493118397474916</v>
+        <v>1.591644965317641</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4620225759836671</v>
+        <v>0.1946204984979829</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009044299538889078</v>
+        <v>0.01412877820343894</v>
       </c>
       <c r="E23">
-        <v>2.653786274019879</v>
+        <v>0.7070248262493806</v>
       </c>
       <c r="F23">
-        <v>1.736408099691246</v>
+        <v>0.9817800577671392</v>
       </c>
       <c r="G23">
-        <v>1.701620911321726</v>
+        <v>0.8449352355766848</v>
       </c>
       <c r="H23">
-        <v>0.8624533356201312</v>
+        <v>0.7804074316231322</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.279841189497517</v>
+        <v>1.534525958759843</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3941587482066353</v>
+        <v>0.1762028379515357</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00993171794356229</v>
+        <v>0.01422209158793208</v>
       </c>
       <c r="E24">
-        <v>2.201482527797964</v>
+        <v>0.6057425809381272</v>
       </c>
       <c r="F24">
-        <v>1.480537510479436</v>
+        <v>0.9363494646806743</v>
       </c>
       <c r="G24">
-        <v>1.441200565859788</v>
+        <v>0.7983086611712054</v>
       </c>
       <c r="H24">
-        <v>0.7562066105008114</v>
+        <v>0.7675362943824382</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.487002348480019</v>
+        <v>1.318080390953071</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3226427465497181</v>
+        <v>0.1566083816444888</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01107326393109176</v>
+        <v>0.01433811940731466</v>
       </c>
       <c r="E25">
-        <v>1.745396427323342</v>
+        <v>0.4972493349182088</v>
       </c>
       <c r="F25">
-        <v>1.226841647023434</v>
+        <v>0.8902806614828052</v>
       </c>
       <c r="G25">
-        <v>1.184610522003169</v>
+        <v>0.7508096592722779</v>
       </c>
       <c r="H25">
-        <v>0.6536533502304565</v>
+        <v>0.7557408544608109</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.655540048617411</v>
+        <v>1.084341454631442</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424151111754526</v>
+        <v>0.2710820033037891</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01443668439061518</v>
+        <v>0.01202666554437748</v>
       </c>
       <c r="E2">
-        <v>0.4178968709247641</v>
+        <v>1.428285877360295</v>
       </c>
       <c r="F2">
-        <v>0.8588185927887366</v>
+        <v>1.054532243501555</v>
       </c>
       <c r="G2">
-        <v>0.7181621447065254</v>
+        <v>1.01137545596022</v>
       </c>
       <c r="H2">
-        <v>0.7488212154705138</v>
+        <v>0.5861233451800842</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9119527343079596</v>
+        <v>3.056876168993796</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329425658592243</v>
+        <v>0.2366688592142907</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01451165562322032</v>
+        <v>0.01272622936635415</v>
       </c>
       <c r="E3">
-        <v>0.3643918641718642</v>
+        <v>1.221606332792021</v>
       </c>
       <c r="F3">
-        <v>0.838997368744117</v>
+        <v>0.944843048906705</v>
       </c>
       <c r="G3">
-        <v>0.697448958700349</v>
+        <v>0.9015987940705941</v>
       </c>
       <c r="H3">
-        <v>0.7452179121359848</v>
+        <v>0.5443476573453694</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7949186235302363</v>
+        <v>2.656766067143195</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271988809211138</v>
+        <v>0.2157553349955634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01456171990234267</v>
+        <v>0.01317772584669008</v>
       </c>
       <c r="E4">
-        <v>0.3316558605631457</v>
+        <v>1.097813895125995</v>
       </c>
       <c r="F4">
-        <v>0.8275570947214419</v>
+        <v>0.8804319209482117</v>
       </c>
       <c r="G4">
-        <v>0.6854153286938782</v>
+        <v>0.8373410053451522</v>
       </c>
       <c r="H4">
-        <v>0.7435364794493609</v>
+        <v>0.5203837350382514</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7229519513519165</v>
+        <v>2.413062937341124</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248766121654654</v>
+        <v>0.2072812213373822</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01458313608027773</v>
+        <v>0.01336668369134486</v>
       </c>
       <c r="E5">
-        <v>0.3183424719556029</v>
+        <v>1.048024789554475</v>
       </c>
       <c r="F5">
-        <v>0.8230772890839688</v>
+        <v>0.8548480397998048</v>
       </c>
       <c r="G5">
-        <v>0.6806819383414506</v>
+        <v>0.811863787711502</v>
       </c>
       <c r="H5">
-        <v>0.7429841627452163</v>
+        <v>0.5110045594380352</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6935976462954443</v>
+        <v>2.314140562968078</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244921112266155</v>
+        <v>0.2058768500194077</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01458675353427097</v>
+        <v>0.01339834557845521</v>
       </c>
       <c r="E6">
-        <v>0.3161333415720549</v>
+        <v>1.039793648543579</v>
       </c>
       <c r="F6">
-        <v>0.8223443850476428</v>
+        <v>0.8506379064506575</v>
       </c>
       <c r="G6">
-        <v>0.6799062060889014</v>
+        <v>0.8076738179542673</v>
       </c>
       <c r="H6">
-        <v>0.7429004578237226</v>
+        <v>0.5094694446652284</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6887217285355405</v>
+        <v>2.297735144387872</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271674876436606</v>
+        <v>0.21564086221656</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01456200461994328</v>
+        <v>0.01318025474633977</v>
       </c>
       <c r="E7">
-        <v>0.3314762062300503</v>
+        <v>1.097139915657706</v>
       </c>
       <c r="F7">
-        <v>0.8274959426062054</v>
+        <v>0.8800842926698067</v>
       </c>
       <c r="G7">
-        <v>0.6853508047655197</v>
+        <v>0.8369946465592761</v>
       </c>
       <c r="H7">
-        <v>0.7435284935495616</v>
+        <v>0.5202557275480615</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7225561798745161</v>
+        <v>2.411727394712102</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391339872389921</v>
+        <v>0.2591676638088245</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0144616979586516</v>
+        <v>0.012262956217576</v>
       </c>
       <c r="E8">
-        <v>0.3994227176412579</v>
+        <v>1.356298040407964</v>
       </c>
       <c r="F8">
-        <v>0.8518318779889427</v>
+        <v>1.016054442958989</v>
       </c>
       <c r="G8">
-        <v>0.7108771843748087</v>
+        <v>0.9728195247310367</v>
       </c>
       <c r="H8">
-        <v>0.7474681922807633</v>
+        <v>0.5713452397880872</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8716213881060355</v>
+        <v>2.918443194443171</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1631724843750817</v>
+        <v>0.3465407365606268</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01429699053659128</v>
+        <v>0.01066856692485629</v>
       </c>
       <c r="E9">
-        <v>0.5337051909546773</v>
+        <v>1.895610640810844</v>
       </c>
       <c r="F9">
-        <v>0.9054127890319421</v>
+        <v>1.309763955298308</v>
       </c>
       <c r="G9">
-        <v>0.7664433230853547</v>
+        <v>1.268289010408381</v>
       </c>
       <c r="H9">
-        <v>0.7594379314803916</v>
+        <v>0.6868143065803167</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.163117941388009</v>
+        <v>3.933099800900607</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1811804329263538</v>
+        <v>0.4124277170271142</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01419554867388939</v>
+        <v>0.009673768546873518</v>
       </c>
       <c r="E10">
-        <v>0.6331678527653679</v>
+        <v>2.32127504188486</v>
       </c>
       <c r="F10">
-        <v>0.9484462813745012</v>
+        <v>1.547982588822961</v>
       </c>
       <c r="G10">
-        <v>0.8107405677280894</v>
+        <v>1.509693606443619</v>
       </c>
       <c r="H10">
-        <v>0.7708640545827166</v>
+        <v>0.7839692953953943</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.37684716269365</v>
+        <v>4.6999628744353</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1894477564342196</v>
+        <v>0.4428854862995877</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01415367986103533</v>
+        <v>0.009274772896224803</v>
       </c>
       <c r="E11">
-        <v>0.6786289171441666</v>
+        <v>2.524177542140279</v>
       </c>
       <c r="F11">
-        <v>0.9688409186484961</v>
+        <v>1.662778414097588</v>
       </c>
       <c r="G11">
-        <v>0.8316717099166908</v>
+        <v>1.626524570589453</v>
       </c>
       <c r="H11">
-        <v>0.7766434580529449</v>
+        <v>0.8316322775146716</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.474000398213832</v>
+        <v>5.055747059891473</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1925891547395793</v>
+        <v>0.4544996629130935</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01413844401657016</v>
+        <v>0.009133014546989671</v>
       </c>
       <c r="E12">
-        <v>0.6958777122517716</v>
+        <v>2.602635890524397</v>
       </c>
       <c r="F12">
-        <v>0.9766831656735491</v>
+        <v>1.707325499533979</v>
       </c>
       <c r="G12">
-        <v>0.839711919813368</v>
+        <v>1.671944226874018</v>
       </c>
       <c r="H12">
-        <v>0.7789163732803388</v>
+        <v>0.8502572221954665</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.510780179962978</v>
+        <v>5.191693511351389</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1919121222641422</v>
+        <v>0.4519945797182032</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0141416977291513</v>
+        <v>0.009163099840584721</v>
       </c>
       <c r="E13">
-        <v>0.6921613334265402</v>
+        <v>2.585661058109238</v>
       </c>
       <c r="F13">
-        <v>0.9749888694867224</v>
+        <v>1.697680948830865</v>
       </c>
       <c r="G13">
-        <v>0.8379752149447484</v>
+        <v>1.662106905743173</v>
       </c>
       <c r="H13">
-        <v>0.7784230954931388</v>
+        <v>0.8462190273924364</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.502859434076015</v>
+        <v>5.162356910620872</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1897059864550101</v>
+        <v>0.4438393131713383</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01415241396862044</v>
+        <v>0.009262912692587832</v>
       </c>
       <c r="E14">
-        <v>0.6800472950032201</v>
+        <v>2.530597960066657</v>
       </c>
       <c r="F14">
-        <v>0.9694837063866544</v>
+        <v>1.666420805226934</v>
       </c>
       <c r="G14">
-        <v>0.8323308865575427</v>
+        <v>1.63023659416308</v>
       </c>
       <c r="H14">
-        <v>0.7768287567407697</v>
+        <v>0.8331525327538998</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.477026491220329</v>
+        <v>5.066905640211473</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1883560605112393</v>
+        <v>0.4388547953139437</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01415905871039413</v>
+        <v>0.009325320802183512</v>
       </c>
       <c r="E15">
-        <v>0.6726315650329298</v>
+        <v>2.497091207982308</v>
       </c>
       <c r="F15">
-        <v>0.966127209693056</v>
+        <v>1.647418140045446</v>
       </c>
       <c r="G15">
-        <v>0.8288884794347382</v>
+        <v>1.610874031009189</v>
       </c>
       <c r="H15">
-        <v>0.7758631893521795</v>
+        <v>0.8252264413904697</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.461201775737038</v>
+        <v>5.008604849245899</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1806416526886494</v>
+        <v>0.4104478840789199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0141983712867102</v>
+        <v>0.009701053136323523</v>
       </c>
       <c r="E16">
-        <v>0.6302014265967273</v>
+        <v>2.308225055187762</v>
       </c>
       <c r="F16">
-        <v>0.947130045510022</v>
+        <v>1.540622262242692</v>
       </c>
       <c r="G16">
-        <v>0.8093885249269874</v>
+        <v>1.502213510254165</v>
       </c>
       <c r="H16">
-        <v>0.770498123972601</v>
+        <v>0.780930531036006</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.370496537373413</v>
+        <v>4.676869261512422</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1759283562378045</v>
+        <v>0.3931527267406665</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01422358635643661</v>
+        <v>0.009946323839095328</v>
       </c>
       <c r="E17">
-        <v>0.6042289279725424</v>
+        <v>2.194926306994603</v>
       </c>
       <c r="F17">
-        <v>0.9356866283153806</v>
+        <v>1.476854337569605</v>
       </c>
       <c r="G17">
-        <v>0.7976270583305052</v>
+        <v>1.437463395504096</v>
       </c>
       <c r="H17">
-        <v>0.7673563215049057</v>
+        <v>0.7546959466780265</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.314833386063185</v>
+        <v>4.475283675784908</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1732244974942603</v>
+        <v>0.3832499978472725</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01423849174496183</v>
+        <v>0.01009232082958356</v>
       </c>
       <c r="E18">
-        <v>0.5893103029655151</v>
+        <v>2.13061180589628</v>
       </c>
       <c r="F18">
-        <v>0.929181624126258</v>
+        <v>1.440771542169756</v>
       </c>
       <c r="G18">
-        <v>0.7909354886209599</v>
+        <v>1.400869595147583</v>
       </c>
       <c r="H18">
-        <v>0.7656039379382094</v>
+        <v>0.7399275482842143</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.282810485814878</v>
+        <v>4.359974600434782</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1723102407663504</v>
+        <v>0.3799045246276904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01424360745325615</v>
+        <v>0.01014255424972532</v>
       </c>
       <c r="E19">
-        <v>0.5842624764112117</v>
+        <v>2.108974293555306</v>
       </c>
       <c r="F19">
-        <v>0.9269923103352085</v>
+        <v>1.428652415769051</v>
       </c>
       <c r="G19">
-        <v>0.7886823734580162</v>
+        <v>1.388586221775995</v>
       </c>
       <c r="H19">
-        <v>0.7650199827868391</v>
+        <v>0.734980183262735</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.271966877819182</v>
+        <v>4.321036222527539</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1764293601259084</v>
+        <v>0.3949890961228704</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01422086050396487</v>
+        <v>0.009919694017318292</v>
       </c>
       <c r="E20">
-        <v>0.6069916477884618</v>
+        <v>2.206897034036871</v>
       </c>
       <c r="F20">
-        <v>0.9368968248045775</v>
+        <v>1.483579949543781</v>
       </c>
       <c r="G20">
-        <v>0.7988714852960186</v>
+        <v>1.444287863693688</v>
       </c>
       <c r="H20">
-        <v>0.7676851053350617</v>
+        <v>0.7574549114984279</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.320759537080676</v>
+        <v>4.49667531490735</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1903536912892605</v>
+        <v>0.4462324373064916</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01414924951573582</v>
+        <v>0.00923332717474068</v>
       </c>
       <c r="E21">
-        <v>0.683604545553905</v>
+        <v>2.546724676573589</v>
       </c>
       <c r="F21">
-        <v>0.9710974577167519</v>
+        <v>1.675572129508168</v>
       </c>
       <c r="G21">
-        <v>0.8339856526763754</v>
+        <v>1.63956421781603</v>
       </c>
       <c r="H21">
-        <v>0.77729475662494</v>
+        <v>0.836974169789471</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.484614521059825</v>
+        <v>5.094906980487622</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1995166141811922</v>
+        <v>0.4801978935460198</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0141060577748533</v>
+        <v>0.008840174746676865</v>
       </c>
       <c r="E22">
-        <v>0.7338731084087584</v>
+        <v>2.778461329943525</v>
       </c>
       <c r="F22">
-        <v>0.9941452992306949</v>
+        <v>1.807412090408903</v>
       </c>
       <c r="G22">
-        <v>0.8576003821598874</v>
+        <v>1.77415511086059</v>
       </c>
       <c r="H22">
-        <v>0.7840674058667219</v>
+        <v>0.8923469834663251</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.591644965317641</v>
+        <v>5.493118397474859</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1946204984979829</v>
+        <v>0.4620225759838661</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01412877820343894</v>
+        <v>0.009044299538871314</v>
       </c>
       <c r="E23">
-        <v>0.7070248262493806</v>
+        <v>2.653786274019907</v>
       </c>
       <c r="F23">
-        <v>0.9817800577671392</v>
+        <v>1.736408099691246</v>
       </c>
       <c r="G23">
-        <v>0.8449352355766848</v>
+        <v>1.701620911321697</v>
       </c>
       <c r="H23">
-        <v>0.7804074316231322</v>
+        <v>0.8624533356202733</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.534525958759843</v>
+        <v>5.279841189497517</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1762028379515357</v>
+        <v>0.394158748206678</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01422209158793208</v>
+        <v>0.009931717943571172</v>
       </c>
       <c r="E24">
-        <v>0.6057425809381272</v>
+        <v>2.201482527797893</v>
       </c>
       <c r="F24">
-        <v>0.9363494646806743</v>
+        <v>1.480537510479436</v>
       </c>
       <c r="G24">
-        <v>0.7983086611712054</v>
+        <v>1.441200565859845</v>
       </c>
       <c r="H24">
-        <v>0.7675362943824382</v>
+        <v>0.7562066105009535</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.318080390953071</v>
+        <v>4.487002348479848</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1566083816444888</v>
+        <v>0.3226427465495618</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01433811940731466</v>
+        <v>0.01107326393101005</v>
       </c>
       <c r="E25">
-        <v>0.4972493349182088</v>
+        <v>1.745396427323314</v>
       </c>
       <c r="F25">
-        <v>0.8902806614828052</v>
+        <v>1.226841647023434</v>
       </c>
       <c r="G25">
-        <v>0.7508096592722779</v>
+        <v>1.184610522003169</v>
       </c>
       <c r="H25">
-        <v>0.7557408544608109</v>
+        <v>0.6536533502304565</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.084341454631442</v>
+        <v>3.655540048617411</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2710820033037891</v>
+        <v>0.8631551395243662</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01202666554437748</v>
+        <v>0.1221149789954339</v>
       </c>
       <c r="E2">
-        <v>1.428285877360295</v>
+        <v>0.09062379203803328</v>
       </c>
       <c r="F2">
-        <v>1.054532243501555</v>
+        <v>0.5551404978297541</v>
       </c>
       <c r="G2">
-        <v>1.01137545596022</v>
+        <v>0.3075865979998014</v>
       </c>
       <c r="H2">
-        <v>0.5861233451800842</v>
+        <v>0.006921993882294281</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0221793667632908</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2905368058850115</v>
       </c>
       <c r="K2">
-        <v>3.056876168993796</v>
+        <v>0.4275518149703288</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1196824003568073</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.416169982761829</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3254067926543485</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.208055104872869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2366688592142907</v>
+        <v>0.755137243768587</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01272622936635415</v>
+        <v>0.114582932005753</v>
       </c>
       <c r="E3">
-        <v>1.221606332792021</v>
+        <v>0.08864836547735777</v>
       </c>
       <c r="F3">
-        <v>0.944843048906705</v>
+        <v>0.5450460421328671</v>
       </c>
       <c r="G3">
-        <v>0.9015987940705941</v>
+        <v>0.3016023925056288</v>
       </c>
       <c r="H3">
-        <v>0.5443476573453694</v>
+        <v>0.008885582412169496</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02502294595691534</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2921001247785497</v>
       </c>
       <c r="K3">
-        <v>2.656766067143195</v>
+        <v>0.4391783208295603</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1173704595509384</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.24887918628113</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.283960028233011</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.198362793821971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2157553349955634</v>
+        <v>0.6883481664821147</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01317772584669008</v>
+        <v>0.109958566156628</v>
       </c>
       <c r="E4">
-        <v>1.097813895125995</v>
+        <v>0.08740033398337843</v>
       </c>
       <c r="F4">
-        <v>0.8804319209482117</v>
+        <v>0.539314192293574</v>
       </c>
       <c r="G4">
-        <v>0.8373410053451522</v>
+        <v>0.2983102590182938</v>
       </c>
       <c r="H4">
-        <v>0.5203837350382514</v>
+        <v>0.01026466812264177</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02695624508743766</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2933264398697446</v>
       </c>
       <c r="K4">
-        <v>2.413062937341124</v>
+        <v>0.4465609790687477</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1158998740674586</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.146374235948144</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2587334074294603</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.193772363962239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2072812213373822</v>
+        <v>0.6601440486890056</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01336668369134486</v>
+        <v>0.1080105231438822</v>
       </c>
       <c r="E5">
-        <v>1.048024789554475</v>
+        <v>0.08681551089978878</v>
       </c>
       <c r="F5">
-        <v>0.8548480397998048</v>
+        <v>0.536656210675595</v>
       </c>
       <c r="G5">
-        <v>0.811863787711502</v>
+        <v>0.2967493954215996</v>
       </c>
       <c r="H5">
-        <v>0.5110045594380352</v>
+        <v>0.01087218871226723</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0278878444547801</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2937248504843737</v>
       </c>
       <c r="K5">
-        <v>2.314140562968078</v>
+        <v>0.4492959885350931</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1152560005944285</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.105885935198813</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2490980597152372</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.19122276635099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2058768500194077</v>
+        <v>0.6543886684989957</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01339834557845521</v>
+        <v>0.1076093290281435</v>
       </c>
       <c r="E6">
-        <v>1.039793648543579</v>
+        <v>0.08663576026691544</v>
       </c>
       <c r="F6">
-        <v>0.8506379064506575</v>
+        <v>0.5356889147303576</v>
       </c>
       <c r="G6">
-        <v>0.8076738179542673</v>
+        <v>0.2961150078456143</v>
       </c>
       <c r="H6">
-        <v>0.5094694446652284</v>
+        <v>0.01097970629130607</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02817200163423106</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2935911980354362</v>
       </c>
       <c r="K6">
-        <v>2.297735144387872</v>
+        <v>0.4493475478360054</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1151106295433535</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.100684096042244</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2482279393161235</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.189585455165442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.21564086221656</v>
+        <v>0.6850500343615806</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01318025474633977</v>
+        <v>0.1097200176045803</v>
       </c>
       <c r="E7">
-        <v>1.097139915657706</v>
+        <v>0.08716878766175817</v>
       </c>
       <c r="F7">
-        <v>0.8800842926698067</v>
+        <v>0.5378260246276767</v>
       </c>
       <c r="G7">
-        <v>0.8369946465592761</v>
+        <v>0.2972512638732141</v>
       </c>
       <c r="H7">
-        <v>0.5202557275480615</v>
+        <v>0.01028330379945581</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02729741526019325</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2927772999368656</v>
       </c>
       <c r="K7">
-        <v>2.411727394712102</v>
+        <v>0.445494304197311</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1157898200333214</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.149988892378161</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.26059091731058</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.190376431251124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2591676638088245</v>
+        <v>0.8221114492047832</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.012262956217576</v>
+        <v>0.1192369351675637</v>
       </c>
       <c r="E8">
-        <v>1.356298040407964</v>
+        <v>0.0896572762727299</v>
       </c>
       <c r="F8">
-        <v>1.016054442958989</v>
+        <v>0.5496547029810372</v>
       </c>
       <c r="G8">
-        <v>0.9728195247310367</v>
+        <v>0.3040793324245357</v>
       </c>
       <c r="H8">
-        <v>0.5713452397880872</v>
+        <v>0.007573227171347258</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.02351720895375298</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2902958218053726</v>
       </c>
       <c r="K8">
-        <v>2.918443194443171</v>
+        <v>0.4300849451545457</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1187698733897964</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.3640042667476</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3137149553218705</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.200020497631172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3465407365606268</v>
+        <v>1.092466518978995</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01066856692485629</v>
+        <v>0.1382895897846268</v>
       </c>
       <c r="E9">
-        <v>1.895610640810844</v>
+        <v>0.09465738901079135</v>
       </c>
       <c r="F9">
-        <v>1.309763955298308</v>
+        <v>0.579295603915007</v>
       </c>
       <c r="G9">
-        <v>1.268289010408381</v>
+        <v>0.3225261443186866</v>
       </c>
       <c r="H9">
-        <v>0.6868143065803167</v>
+        <v>0.003690040118546567</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01713789277747768</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2885963466066954</v>
       </c>
       <c r="K9">
-        <v>3.933099800900607</v>
+        <v>0.4037567075535957</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1243956097197827</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.778276274219337</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.416244156098017</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.23622530065883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4124277170271142</v>
+        <v>1.280947059881186</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009673768546873518</v>
+        <v>0.1497120602555242</v>
       </c>
       <c r="E10">
-        <v>2.32127504188486</v>
+        <v>0.09632592610843993</v>
       </c>
       <c r="F10">
-        <v>1.547982588822961</v>
+        <v>0.5949168066396311</v>
       </c>
       <c r="G10">
-        <v>1.509693606443619</v>
+        <v>0.3327609190271801</v>
       </c>
       <c r="H10">
-        <v>0.7839692953953943</v>
+        <v>0.00209403541392339</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01370313447254201</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2859457851513127</v>
       </c>
       <c r="K10">
-        <v>4.6999628744353</v>
+        <v>0.381968301244882</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1280403279656186</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.095693453110584</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4848436964055054</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.252818597677049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4428854862995877</v>
+        <v>1.305074660116105</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009274772896224803</v>
+        <v>0.1337736133245571</v>
       </c>
       <c r="E11">
-        <v>2.524177542140279</v>
+        <v>0.08535609503033292</v>
       </c>
       <c r="F11">
-        <v>1.662778414097588</v>
+        <v>0.5325582302430902</v>
       </c>
       <c r="G11">
-        <v>1.626524570589453</v>
+        <v>0.2939213082285832</v>
       </c>
       <c r="H11">
-        <v>0.8316322775146716</v>
+        <v>0.02064215391964197</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0134746111711026</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2623922390864237</v>
       </c>
       <c r="K11">
-        <v>5.055747059891473</v>
+        <v>0.3471170025102328</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1354412615243916</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.328634537860012</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4415792973318702</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.121343931027241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4544996629130935</v>
+        <v>1.289607852209514</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009133014546989671</v>
+        <v>0.1192288122729579</v>
       </c>
       <c r="E12">
-        <v>2.602635890524397</v>
+        <v>0.08082824894488438</v>
       </c>
       <c r="F12">
-        <v>1.707325499533979</v>
+        <v>0.4811046086461346</v>
       </c>
       <c r="G12">
-        <v>1.671944226874018</v>
+        <v>0.2619333559202772</v>
       </c>
       <c r="H12">
-        <v>0.8502572221954665</v>
+        <v>0.05942634497455401</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01338031858209199</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2444317120006687</v>
       </c>
       <c r="K12">
-        <v>5.191693511351389</v>
+        <v>0.3284293833100884</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1512678633345637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.455299173790422</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3897517824327821</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.015987590538515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4519945797182032</v>
+        <v>1.238261434169914</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009163099840584721</v>
+        <v>0.1046361543787242</v>
       </c>
       <c r="E13">
-        <v>2.585661058109238</v>
+        <v>0.08053770618604617</v>
       </c>
       <c r="F13">
-        <v>1.697680948830865</v>
+        <v>0.4327044386711592</v>
       </c>
       <c r="G13">
-        <v>1.662106905743173</v>
+        <v>0.2316203490017514</v>
       </c>
       <c r="H13">
-        <v>0.8462190273924364</v>
+        <v>0.1154199644453655</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01383640456697588</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2287806545415521</v>
       </c>
       <c r="K13">
-        <v>5.162356910620872</v>
+        <v>0.3191018973627571</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1739364206109499</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.51285424675288</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3318223724336633</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9189303252583443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4438393131713383</v>
+        <v>1.185421279943569</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009262912692587832</v>
+        <v>0.09457268217803971</v>
       </c>
       <c r="E14">
-        <v>2.530597960066657</v>
+        <v>0.082838229166879</v>
       </c>
       <c r="F14">
-        <v>1.666420805226934</v>
+        <v>0.4004309190972108</v>
       </c>
       <c r="G14">
-        <v>1.63023659416308</v>
+        <v>0.2112638379488629</v>
       </c>
       <c r="H14">
-        <v>0.8331525327538998</v>
+        <v>0.1649923605098422</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01451103379169894</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2188843735646557</v>
       </c>
       <c r="K14">
-        <v>5.066905640211473</v>
+        <v>0.3172316162026376</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1941147491511543</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.523172427555266</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2897298449032775</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8549969269140263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4388547953139437</v>
+        <v>1.16396117190277</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009325320802183512</v>
+        <v>0.0919498922377926</v>
       </c>
       <c r="E15">
-        <v>2.497091207982308</v>
+        <v>0.08369970005185401</v>
       </c>
       <c r="F15">
-        <v>1.647418140045446</v>
+        <v>0.3925616516094976</v>
       </c>
       <c r="G15">
-        <v>1.610874031009189</v>
+        <v>0.20621275658781</v>
       </c>
       <c r="H15">
-        <v>0.8252264413904697</v>
+        <v>0.1776155236567121</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0149467977951927</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2167446217317419</v>
       </c>
       <c r="K15">
-        <v>5.008604849245899</v>
+        <v>0.3180811911060983</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1992934527711938</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.512162268665492</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2785706321676003</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8397751781186003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4104478840789199</v>
+        <v>1.09285743435089</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.009701053136323523</v>
+        <v>0.09021371911035203</v>
       </c>
       <c r="E16">
-        <v>2.308225055187762</v>
+        <v>0.08284771027564286</v>
       </c>
       <c r="F16">
-        <v>1.540622262242692</v>
+        <v>0.3949305452077212</v>
       </c>
       <c r="G16">
-        <v>1.502213510254165</v>
+        <v>0.2072323856045841</v>
       </c>
       <c r="H16">
-        <v>0.780930531036006</v>
+        <v>0.1655493086975781</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01649562763355394</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.220534054860444</v>
       </c>
       <c r="K16">
-        <v>4.676869261512422</v>
+        <v>0.3279761027179997</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1922905432399347</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.363450772634593</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2634062368651087</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8496841769445211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3931527267406665</v>
+        <v>1.066164996810642</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009946323839095328</v>
+        <v>0.09407221355690609</v>
       </c>
       <c r="E17">
-        <v>2.194926306994603</v>
+        <v>0.08056014614224072</v>
       </c>
       <c r="F17">
-        <v>1.476854337569605</v>
+        <v>0.4136619798005867</v>
       </c>
       <c r="G17">
-        <v>1.437463395504096</v>
+        <v>0.2187253124911521</v>
       </c>
       <c r="H17">
-        <v>0.7546959466780265</v>
+        <v>0.1281832660656477</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01736013706737261</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2286884909662632</v>
       </c>
       <c r="K17">
-        <v>4.475283675784908</v>
+        <v>0.3362967857024571</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1754534862587533</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.244511282692912</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2737739812500308</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8910099079860174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3832499978472725</v>
+        <v>1.076852451253416</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01009232082958356</v>
+        <v>0.1038728742960018</v>
       </c>
       <c r="E18">
-        <v>2.13061180589628</v>
+        <v>0.07907134608515376</v>
       </c>
       <c r="F18">
-        <v>1.440771542169756</v>
+        <v>0.4508304315719371</v>
       </c>
       <c r="G18">
-        <v>1.400869595147583</v>
+        <v>0.2419710103680899</v>
       </c>
       <c r="H18">
-        <v>0.7399275482842143</v>
+        <v>0.07547007285248952</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01731838729387292</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.242195560991938</v>
       </c>
       <c r="K18">
-        <v>4.359974600434782</v>
+        <v>0.3467456437521221</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1527210080539554</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.134958722700873</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.307353006268869</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.968512448033465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3799045246276904</v>
+        <v>1.111381112222176</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01014255424972532</v>
+        <v>0.1183466311570029</v>
       </c>
       <c r="E19">
-        <v>2.108974293555306</v>
+        <v>0.08173954150950413</v>
       </c>
       <c r="F19">
-        <v>1.428652415769051</v>
+        <v>0.5002605998227452</v>
       </c>
       <c r="G19">
-        <v>1.388586221775995</v>
+        <v>0.2728458135871819</v>
       </c>
       <c r="H19">
-        <v>0.734980183262735</v>
+        <v>0.02993064239755938</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01714280980475102</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2587890588406694</v>
       </c>
       <c r="K19">
-        <v>4.321036222527539</v>
+        <v>0.3607682228639497</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1346191647219612</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.051438993824746</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.362864496797684</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.06870026389484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3949890961228704</v>
+        <v>1.222040726129848</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009919694017318292</v>
+        <v>0.1459527098308016</v>
       </c>
       <c r="E20">
-        <v>2.206897034036871</v>
+        <v>0.09517431789837616</v>
       </c>
       <c r="F20">
-        <v>1.483579949543781</v>
+        <v>0.5859071978582762</v>
       </c>
       <c r="G20">
-        <v>1.444287863693688</v>
+        <v>0.3265700821052206</v>
       </c>
       <c r="H20">
-        <v>0.7574549114984279</v>
+        <v>0.002446459696639813</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01549887487706059</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2847824161526944</v>
       </c>
       <c r="K20">
-        <v>4.49667531490735</v>
+        <v>0.3843819186880406</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1268749035195138</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.026020589831774</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4726725255188597</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.23714420384708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4462324373064916</v>
+        <v>1.377827146984174</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00923332717474068</v>
+        <v>0.1587133031942898</v>
       </c>
       <c r="E21">
-        <v>2.546724676573589</v>
+        <v>0.09922961813698805</v>
       </c>
       <c r="F21">
-        <v>1.675572129508168</v>
+        <v>0.6122424931167529</v>
       </c>
       <c r="G21">
-        <v>1.63956421781603</v>
+        <v>0.3437170845729938</v>
       </c>
       <c r="H21">
-        <v>0.836974169789471</v>
+        <v>0.001146358029301076</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01285657839796883</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2876179998719195</v>
       </c>
       <c r="K21">
-        <v>5.094906980487622</v>
+        <v>0.3737482131096961</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1300309826075274</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.253759749801617</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5387192592906587</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.279767196419613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4801978935460198</v>
+        <v>1.479876786170763</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.008840174746676865</v>
+        <v>0.1660712396219992</v>
       </c>
       <c r="E22">
-        <v>2.778461329943525</v>
+        <v>0.1012515138405057</v>
       </c>
       <c r="F22">
-        <v>1.807412090408903</v>
+        <v>0.6277281028908916</v>
       </c>
       <c r="G22">
-        <v>1.77415511086059</v>
+        <v>0.3541468634721383</v>
       </c>
       <c r="H22">
-        <v>0.8923469834663251</v>
+        <v>0.0006319209071936616</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01100483176840328</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2891326262165563</v>
       </c>
       <c r="K22">
-        <v>5.493118397474859</v>
+        <v>0.3667007564984974</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1320525684295535</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.402125841190582</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5748900274384994</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.305260399408525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4620225759838661</v>
+        <v>1.428986617679186</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009044299538871314</v>
+        <v>0.1623930990336788</v>
       </c>
       <c r="E23">
-        <v>2.653786274019907</v>
+        <v>0.1004246908000326</v>
       </c>
       <c r="F23">
-        <v>1.736408099691246</v>
+        <v>0.6210649175206271</v>
       </c>
       <c r="G23">
-        <v>1.701620911321697</v>
+        <v>0.3497131783310508</v>
       </c>
       <c r="H23">
-        <v>0.8624533356202733</v>
+        <v>0.0008839486109053496</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01161347736262996</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.288914360932921</v>
       </c>
       <c r="K23">
-        <v>5.279841189497517</v>
+        <v>0.3715962085678708</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1310613042139823</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.317769221029579</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5531377890665823</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.295291639758403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.394158748206678</v>
+        <v>1.229971723484283</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009931717943571172</v>
+        <v>0.1480936143069442</v>
       </c>
       <c r="E24">
-        <v>2.201482527797893</v>
+        <v>0.09685524122436995</v>
       </c>
       <c r="F24">
-        <v>1.480537510479436</v>
+        <v>0.5944150028053414</v>
       </c>
       <c r="G24">
-        <v>1.441200565859845</v>
+        <v>0.3321102571356036</v>
       </c>
       <c r="H24">
-        <v>0.7562066105009535</v>
+        <v>0.00226467367510752</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01488634946679035</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2877469510955706</v>
       </c>
       <c r="K24">
-        <v>4.487002348479848</v>
+        <v>0.388867886283208</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1271231667084485</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.007397797230936</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4751917092777802</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.255092156227775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3226427465495618</v>
+        <v>1.014353201659219</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01107326393101005</v>
+        <v>0.132749568331441</v>
       </c>
       <c r="E25">
-        <v>1.745396427323314</v>
+        <v>0.0929410239014512</v>
       </c>
       <c r="F25">
-        <v>1.226841647023434</v>
+        <v>0.568260641583727</v>
       </c>
       <c r="G25">
-        <v>1.184610522003169</v>
+        <v>0.3153242246454369</v>
       </c>
       <c r="H25">
-        <v>0.6536533502304565</v>
+        <v>0.004586298507280595</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01923531321688809</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2878384838816004</v>
       </c>
       <c r="K25">
-        <v>3.655540048617411</v>
+        <v>0.4087904663244633</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.122758667884086</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.673618973661604</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3919285879329522</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.219199462703926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8631551395243662</v>
+        <v>0.8335833015501635</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1221149789954339</v>
+        <v>0.1169745228815344</v>
       </c>
       <c r="E2">
-        <v>0.09062379203803328</v>
+        <v>0.08190822954393262</v>
       </c>
       <c r="F2">
-        <v>0.5551404978297541</v>
+        <v>0.5333552515632434</v>
       </c>
       <c r="G2">
-        <v>0.3075865979998014</v>
+        <v>0.2778025641267661</v>
       </c>
       <c r="H2">
-        <v>0.006921993882294281</v>
+        <v>0.005191767925756596</v>
       </c>
       <c r="I2">
-        <v>0.0221793667632908</v>
+        <v>0.01553815426487137</v>
       </c>
       <c r="J2">
-        <v>0.2905368058850115</v>
+        <v>0.3128812046572875</v>
       </c>
       <c r="K2">
-        <v>0.4275518149703288</v>
+        <v>0.3765790004043517</v>
       </c>
       <c r="L2">
-        <v>0.1196824003568073</v>
+        <v>0.1535017791128652</v>
       </c>
       <c r="M2">
-        <v>1.416169982761829</v>
+        <v>0.1301244785171463</v>
       </c>
       <c r="N2">
-        <v>0.3254067926543485</v>
+        <v>0.1070761119757591</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.434781917710581</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3422524180763986</v>
       </c>
       <c r="Q2">
-        <v>1.208055104872869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.162231132434115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.755137243768587</v>
+        <v>0.731545193348353</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.114582932005753</v>
+        <v>0.1098776796804302</v>
       </c>
       <c r="E3">
-        <v>0.08864836547735777</v>
+        <v>0.08031301060543328</v>
       </c>
       <c r="F3">
-        <v>0.5450460421328671</v>
+        <v>0.5252101203219368</v>
       </c>
       <c r="G3">
-        <v>0.3016023925056288</v>
+        <v>0.2740457937058096</v>
       </c>
       <c r="H3">
-        <v>0.008885582412169496</v>
+        <v>0.006804359567805313</v>
       </c>
       <c r="I3">
-        <v>0.02502294595691534</v>
+        <v>0.01758451181009146</v>
       </c>
       <c r="J3">
-        <v>0.2921001247785497</v>
+        <v>0.3128000042638917</v>
       </c>
       <c r="K3">
-        <v>0.4391783208295603</v>
+        <v>0.3878834478224995</v>
       </c>
       <c r="L3">
-        <v>0.1173704595509384</v>
+        <v>0.1592010469177048</v>
       </c>
       <c r="M3">
-        <v>1.24887918628113</v>
+        <v>0.1347218297034329</v>
       </c>
       <c r="N3">
-        <v>0.283960028233011</v>
+        <v>0.1047667856453471</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.257409706434942</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2964409218027555</v>
       </c>
       <c r="Q3">
-        <v>1.198362793821971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.156724458528117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6883481664821147</v>
+        <v>0.6682683039064159</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.109958566156628</v>
+        <v>0.1055119698332661</v>
       </c>
       <c r="E4">
-        <v>0.08740033398337843</v>
+        <v>0.07929632985671731</v>
       </c>
       <c r="F4">
-        <v>0.539314192293574</v>
+        <v>0.5205975341079636</v>
       </c>
       <c r="G4">
-        <v>0.2983102590182938</v>
+        <v>0.2721553879636858</v>
       </c>
       <c r="H4">
-        <v>0.01026466812264177</v>
+        <v>0.007945763121265936</v>
       </c>
       <c r="I4">
-        <v>0.02695624508743766</v>
+        <v>0.01899327649117888</v>
       </c>
       <c r="J4">
-        <v>0.2933264398697446</v>
+        <v>0.3128700317426905</v>
       </c>
       <c r="K4">
-        <v>0.4465609790687477</v>
+        <v>0.3950205548174051</v>
       </c>
       <c r="L4">
-        <v>0.1158998740674586</v>
+        <v>0.1629388202431521</v>
       </c>
       <c r="M4">
-        <v>1.146374235948144</v>
+        <v>0.1379571035447937</v>
       </c>
       <c r="N4">
-        <v>0.2587334074294603</v>
+        <v>0.1033115413788899</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.14892275328296</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2686474998009345</v>
       </c>
       <c r="Q4">
-        <v>1.193772363962239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.154510556049502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6601440486890056</v>
+        <v>0.6415162999326185</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1080105231438822</v>
+        <v>0.1036719497877883</v>
       </c>
       <c r="E5">
-        <v>0.08681551089978878</v>
+        <v>0.07881197111391458</v>
       </c>
       <c r="F5">
-        <v>0.536656210675595</v>
+        <v>0.5184093838062438</v>
       </c>
       <c r="G5">
-        <v>0.2967493954215996</v>
+        <v>0.2712007880073983</v>
       </c>
       <c r="H5">
-        <v>0.01087218871226723</v>
+        <v>0.008450483716979151</v>
       </c>
       <c r="I5">
-        <v>0.0278878444547801</v>
+        <v>0.01971209134129914</v>
       </c>
       <c r="J5">
-        <v>0.2937248504843737</v>
+        <v>0.3127686027659138</v>
       </c>
       <c r="K5">
-        <v>0.4492959885350931</v>
+        <v>0.3976846947790076</v>
       </c>
       <c r="L5">
-        <v>0.1152560005944285</v>
+        <v>0.1643488191249567</v>
       </c>
       <c r="M5">
-        <v>1.105885935198813</v>
+        <v>0.139332678623733</v>
       </c>
       <c r="N5">
-        <v>0.2490980597152372</v>
+        <v>0.1026843313498096</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.10598212606692</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2579650762368431</v>
       </c>
       <c r="Q5">
-        <v>1.19122276635099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.152958166696109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6543886684989957</v>
+        <v>0.6360742628818059</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1076093290281435</v>
+        <v>0.1032943735108987</v>
       </c>
       <c r="E6">
-        <v>0.08663576026691544</v>
+        <v>0.07865713534745389</v>
       </c>
       <c r="F6">
-        <v>0.5356889147303576</v>
+        <v>0.5175594288837431</v>
       </c>
       <c r="G6">
-        <v>0.2961150078456143</v>
+        <v>0.2707010486222003</v>
       </c>
       <c r="H6">
-        <v>0.01097970629130607</v>
+        <v>0.008539968406985607</v>
       </c>
       <c r="I6">
-        <v>0.02817200163423106</v>
+        <v>0.01997363340513481</v>
       </c>
       <c r="J6">
-        <v>0.2935911980354362</v>
+        <v>0.3125587075066818</v>
       </c>
       <c r="K6">
-        <v>0.4493475478360054</v>
+        <v>0.3977743504086693</v>
       </c>
       <c r="L6">
-        <v>0.1151106295433535</v>
+        <v>0.1643769879140038</v>
       </c>
       <c r="M6">
-        <v>1.100684096042244</v>
+        <v>0.1395102909668451</v>
       </c>
       <c r="N6">
-        <v>0.2482279393161235</v>
+        <v>0.102550575234549</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100293281593707</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2568866723186716</v>
       </c>
       <c r="Q6">
-        <v>1.189585455165442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.151577640438475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6850500343615806</v>
+        <v>0.665583303311621</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1097200176045803</v>
+        <v>0.1054518794058836</v>
       </c>
       <c r="E7">
-        <v>0.08716878766175817</v>
+        <v>0.07910899474398025</v>
       </c>
       <c r="F7">
-        <v>0.5378260246276767</v>
+        <v>0.51850175081141</v>
       </c>
       <c r="G7">
-        <v>0.2972512638732141</v>
+        <v>0.2732749311621561</v>
       </c>
       <c r="H7">
-        <v>0.01028330379945581</v>
+        <v>0.007966462275158487</v>
       </c>
       <c r="I7">
-        <v>0.02729741526019325</v>
+        <v>0.01937115937604172</v>
       </c>
       <c r="J7">
-        <v>0.2927772999368656</v>
+        <v>0.3090524439528295</v>
       </c>
       <c r="K7">
-        <v>0.445494304197311</v>
+        <v>0.393886616765025</v>
       </c>
       <c r="L7">
-        <v>0.1157898200333214</v>
+        <v>0.1622933729109288</v>
       </c>
       <c r="M7">
-        <v>1.149988892378161</v>
+        <v>0.1377624775238484</v>
       </c>
       <c r="N7">
-        <v>0.26059091731058</v>
+        <v>0.1032045343608941</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.151638978351116</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2702175712390158</v>
       </c>
       <c r="Q7">
-        <v>1.190376431251124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.149216097165336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8221114492047832</v>
+        <v>0.7962126052065912</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1192369351675637</v>
+        <v>0.1148093737181384</v>
       </c>
       <c r="E8">
-        <v>0.0896572762727299</v>
+        <v>0.08117412427446258</v>
       </c>
       <c r="F8">
-        <v>0.5496547029810372</v>
+        <v>0.5263195403607313</v>
       </c>
       <c r="G8">
-        <v>0.3040793324245357</v>
+        <v>0.2821432848358398</v>
       </c>
       <c r="H8">
-        <v>0.007573227171347258</v>
+        <v>0.005738077011499643</v>
       </c>
       <c r="I8">
-        <v>0.02351720895375298</v>
+        <v>0.0166677056866007</v>
       </c>
       <c r="J8">
-        <v>0.2902958218053726</v>
+        <v>0.3015000410707458</v>
       </c>
       <c r="K8">
-        <v>0.4300849451545457</v>
+        <v>0.3785700269080223</v>
       </c>
       <c r="L8">
-        <v>0.1187698733897964</v>
+        <v>0.1544794781259853</v>
       </c>
       <c r="M8">
-        <v>1.3640042667476</v>
+        <v>0.1311626208566032</v>
       </c>
       <c r="N8">
-        <v>0.3137149553218705</v>
+        <v>0.1061315064636834</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.376663031191015</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3283177246388647</v>
       </c>
       <c r="Q8">
-        <v>1.200020497631172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.148885523440839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.092466518978995</v>
+        <v>1.050882167150064</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1382895897846268</v>
+        <v>0.1328634231292156</v>
       </c>
       <c r="E9">
-        <v>0.09465738901079135</v>
+        <v>0.08520949713049042</v>
       </c>
       <c r="F9">
-        <v>0.579295603915007</v>
+        <v>0.5498908967502629</v>
       </c>
       <c r="G9">
-        <v>0.3225261443186866</v>
+        <v>0.2970846983649693</v>
       </c>
       <c r="H9">
-        <v>0.003690040118546567</v>
+        <v>0.002599505135491675</v>
       </c>
       <c r="I9">
-        <v>0.01713789277747768</v>
+        <v>0.01203478051284712</v>
       </c>
       <c r="J9">
-        <v>0.2885963466066954</v>
+        <v>0.3001460533932487</v>
       </c>
       <c r="K9">
-        <v>0.4037567075535957</v>
+        <v>0.3525042609265956</v>
       </c>
       <c r="L9">
-        <v>0.1243956097197827</v>
+        <v>0.1422787781003834</v>
       </c>
       <c r="M9">
-        <v>1.778276274219337</v>
+        <v>0.122054184115723</v>
       </c>
       <c r="N9">
-        <v>0.416244156098017</v>
+        <v>0.1117887690087325</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.816836543493054</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4422966456843227</v>
       </c>
       <c r="Q9">
-        <v>1.23622530065883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.171342224618385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.280947059881186</v>
+        <v>1.231077306591203</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1497120602555242</v>
+        <v>0.1446131519501535</v>
       </c>
       <c r="E10">
-        <v>0.09632592610843993</v>
+        <v>0.0865470117815601</v>
       </c>
       <c r="F10">
-        <v>0.5949168066396311</v>
+        <v>0.55756391523677</v>
       </c>
       <c r="G10">
-        <v>0.3327609190271801</v>
+        <v>0.3181653218509979</v>
       </c>
       <c r="H10">
-        <v>0.00209403541392339</v>
+        <v>0.001416589923207034</v>
       </c>
       <c r="I10">
-        <v>0.01370313447254201</v>
+        <v>0.009707369061242588</v>
       </c>
       <c r="J10">
-        <v>0.2859457851513127</v>
+        <v>0.2802623628516869</v>
       </c>
       <c r="K10">
-        <v>0.381968301244882</v>
+        <v>0.3307921084501899</v>
       </c>
       <c r="L10">
-        <v>0.1280403279656186</v>
+        <v>0.1333000131894284</v>
       </c>
       <c r="M10">
-        <v>2.095693453110584</v>
+        <v>0.1158507278398435</v>
       </c>
       <c r="N10">
-        <v>0.4848436964055054</v>
+        <v>0.1157933465992009</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.148188802922704</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5173330638439069</v>
       </c>
       <c r="Q10">
-        <v>1.252818597677049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.166902763756596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.305074660116105</v>
+        <v>1.269648056038733</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1337736133245571</v>
+        <v>0.1313496800101319</v>
       </c>
       <c r="E11">
-        <v>0.08535609503033292</v>
+        <v>0.07731004892372262</v>
       </c>
       <c r="F11">
-        <v>0.5325582302430902</v>
+        <v>0.4936638805294038</v>
       </c>
       <c r="G11">
-        <v>0.2939213082285832</v>
+        <v>0.3094150121132486</v>
       </c>
       <c r="H11">
-        <v>0.02064215391964197</v>
+        <v>0.02000551859394051</v>
       </c>
       <c r="I11">
-        <v>0.0134746111711026</v>
+        <v>0.009863713032721044</v>
       </c>
       <c r="J11">
-        <v>0.2623922390864237</v>
+        <v>0.2320052105922059</v>
       </c>
       <c r="K11">
-        <v>0.3471170025102328</v>
+        <v>0.3029915521564543</v>
       </c>
       <c r="L11">
-        <v>0.1354412615243916</v>
+        <v>0.1241692502104785</v>
       </c>
       <c r="M11">
-        <v>2.328634537860012</v>
+        <v>0.1050805469084777</v>
       </c>
       <c r="N11">
-        <v>0.4415792973318702</v>
+        <v>0.1255151191952706</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.361722095000346</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4636291874722644</v>
       </c>
       <c r="Q11">
-        <v>1.121343931027241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.026403497625623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.289607852209514</v>
+        <v>1.266482920344629</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1192288122729579</v>
+        <v>0.11811557810789</v>
       </c>
       <c r="E12">
-        <v>0.08082824894488438</v>
+        <v>0.07358854242959617</v>
       </c>
       <c r="F12">
-        <v>0.4811046086461346</v>
+        <v>0.4450294739153833</v>
       </c>
       <c r="G12">
-        <v>0.2619333559202772</v>
+        <v>0.2908045748604025</v>
       </c>
       <c r="H12">
-        <v>0.05942634497455401</v>
+        <v>0.05878031148090201</v>
       </c>
       <c r="I12">
-        <v>0.01338031858209199</v>
+        <v>0.009813475727169951</v>
       </c>
       <c r="J12">
-        <v>0.2444317120006687</v>
+        <v>0.2101818768233805</v>
       </c>
       <c r="K12">
-        <v>0.3284293833100884</v>
+        <v>0.2896899099179695</v>
       </c>
       <c r="L12">
-        <v>0.1512678633345637</v>
+        <v>0.1206466406915185</v>
       </c>
       <c r="M12">
-        <v>2.455299173790422</v>
+        <v>0.09903038605158621</v>
       </c>
       <c r="N12">
-        <v>0.3897517824327821</v>
+        <v>0.1421365149176594</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.470314915425689</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4032252335057365</v>
       </c>
       <c r="Q12">
-        <v>1.015987590538515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.9255892010272788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.238261434169914</v>
+        <v>1.225763214400786</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1046361543787242</v>
+        <v>0.1036811005366829</v>
       </c>
       <c r="E13">
-        <v>0.08053770618604617</v>
+        <v>0.07360713902884708</v>
       </c>
       <c r="F13">
-        <v>0.4327044386711592</v>
+        <v>0.4039038400474197</v>
       </c>
       <c r="G13">
-        <v>0.2316203490017514</v>
+        <v>0.2574762603997485</v>
       </c>
       <c r="H13">
-        <v>0.1154199644453655</v>
+        <v>0.1147157378524071</v>
       </c>
       <c r="I13">
-        <v>0.01383640456697588</v>
+        <v>0.01011671396524072</v>
       </c>
       <c r="J13">
-        <v>0.2287806545415521</v>
+        <v>0.204283487000346</v>
       </c>
       <c r="K13">
-        <v>0.3191018973627571</v>
+        <v>0.284587064933173</v>
       </c>
       <c r="L13">
-        <v>0.1739364206109499</v>
+        <v>0.1197062658381851</v>
       </c>
       <c r="M13">
-        <v>2.51285424675288</v>
+        <v>0.09599750156777143</v>
       </c>
       <c r="N13">
-        <v>0.3318223724336633</v>
+        <v>0.1645759308851211</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.511594473090611</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3379906478412238</v>
       </c>
       <c r="Q13">
-        <v>0.9189303252583443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8465662909930245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.185421279943569</v>
+        <v>1.179646446436777</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09457268217803971</v>
+        <v>0.09332362802572192</v>
       </c>
       <c r="E14">
-        <v>0.082838229166879</v>
+        <v>0.07590654060290358</v>
       </c>
       <c r="F14">
-        <v>0.4004309190972108</v>
+        <v>0.378140927225644</v>
       </c>
       <c r="G14">
-        <v>0.2112638379488629</v>
+        <v>0.2289867209567049</v>
       </c>
       <c r="H14">
-        <v>0.1649923605098422</v>
+        <v>0.1642247509399652</v>
       </c>
       <c r="I14">
-        <v>0.01451103379169894</v>
+        <v>0.01060666138268562</v>
       </c>
       <c r="J14">
-        <v>0.2188843735646557</v>
+        <v>0.2055091694714513</v>
       </c>
       <c r="K14">
-        <v>0.3172316162026376</v>
+        <v>0.284624313318651</v>
       </c>
       <c r="L14">
-        <v>0.1941147491511543</v>
+        <v>0.1199637430330691</v>
       </c>
       <c r="M14">
-        <v>2.523172427555266</v>
+        <v>0.09542342845380547</v>
       </c>
       <c r="N14">
-        <v>0.2897298449032775</v>
+        <v>0.183981034787962</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.51120050139599</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2914279239242461</v>
       </c>
       <c r="Q14">
-        <v>0.8549969269140263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.799745280545622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.16396117190277</v>
+        <v>1.1595910668442</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0919498922377926</v>
+        <v>0.09048760589581661</v>
       </c>
       <c r="E15">
-        <v>0.08369970005185401</v>
+        <v>0.07676019706736703</v>
       </c>
       <c r="F15">
-        <v>0.3925616516094976</v>
+        <v>0.3725531208261543</v>
       </c>
       <c r="G15">
-        <v>0.20621275658781</v>
+        <v>0.2196117843651209</v>
       </c>
       <c r="H15">
-        <v>0.1776155236567121</v>
+        <v>0.1768151517445204</v>
       </c>
       <c r="I15">
-        <v>0.0149467977951927</v>
+        <v>0.01097114626553175</v>
       </c>
       <c r="J15">
-        <v>0.2167446217317419</v>
+        <v>0.2080883430000569</v>
       </c>
       <c r="K15">
-        <v>0.3180811911060983</v>
+        <v>0.2856932622244486</v>
       </c>
       <c r="L15">
-        <v>0.1992934527711938</v>
+        <v>0.1202168870858129</v>
       </c>
       <c r="M15">
-        <v>2.512162268665492</v>
+        <v>0.09578149318740477</v>
       </c>
       <c r="N15">
-        <v>0.2785706321676003</v>
+        <v>0.1888753011740718</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.497930280168219</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2792711701042521</v>
       </c>
       <c r="Q15">
-        <v>0.8397751781186003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7907964071185347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.09285743435089</v>
+        <v>1.0861862832231</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09021371911035203</v>
+        <v>0.08757183801763802</v>
       </c>
       <c r="E16">
-        <v>0.08284771027564286</v>
+        <v>0.07609839768860205</v>
       </c>
       <c r="F16">
-        <v>0.3949305452077212</v>
+        <v>0.3810007644495883</v>
       </c>
       <c r="G16">
-        <v>0.2072323856045841</v>
+        <v>0.2014293689314783</v>
       </c>
       <c r="H16">
-        <v>0.1655493086975781</v>
+        <v>0.1645597571511672</v>
       </c>
       <c r="I16">
-        <v>0.01649562763355394</v>
+        <v>0.01208647019601194</v>
       </c>
       <c r="J16">
-        <v>0.220534054860444</v>
+        <v>0.2312568131988115</v>
       </c>
       <c r="K16">
-        <v>0.3279761027179997</v>
+        <v>0.2942454753521067</v>
       </c>
       <c r="L16">
-        <v>0.1922905432399347</v>
+        <v>0.1216213170895668</v>
       </c>
       <c r="M16">
-        <v>2.363450772634593</v>
+        <v>0.09989453641002929</v>
       </c>
       <c r="N16">
-        <v>0.2634062368651087</v>
+        <v>0.1817864711855322</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.353246873796252</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2645702553550535</v>
       </c>
       <c r="Q16">
-        <v>0.8496841769445211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8188858579328695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.066164996810642</v>
+        <v>1.054827591053538</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09407221355690609</v>
+        <v>0.09076290534871134</v>
       </c>
       <c r="E17">
-        <v>0.08056014614224072</v>
+        <v>0.07389462397200308</v>
       </c>
       <c r="F17">
-        <v>0.4136619798005867</v>
+        <v>0.4006802165949992</v>
       </c>
       <c r="G17">
-        <v>0.2187253124911521</v>
+        <v>0.2042934688644209</v>
       </c>
       <c r="H17">
-        <v>0.1281832660656477</v>
+        <v>0.1270799102859712</v>
       </c>
       <c r="I17">
-        <v>0.01736013706737261</v>
+        <v>0.01271930600814564</v>
       </c>
       <c r="J17">
-        <v>0.2286884909662632</v>
+        <v>0.248209241679163</v>
       </c>
       <c r="K17">
-        <v>0.3362967857024571</v>
+        <v>0.3010752698428792</v>
       </c>
       <c r="L17">
-        <v>0.1754534862587533</v>
+        <v>0.1231048790033171</v>
       </c>
       <c r="M17">
-        <v>2.244511282692912</v>
+        <v>0.1031281075660707</v>
       </c>
       <c r="N17">
-        <v>0.2737739812500308</v>
+        <v>0.1653565720375383</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.241868928546836</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2773594323285806</v>
       </c>
       <c r="Q17">
-        <v>0.8910099079860174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.864113901656026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.076852451253416</v>
+        <v>1.057243368847935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1038728742960018</v>
+        <v>0.0998986678557614</v>
       </c>
       <c r="E18">
-        <v>0.07907134608515376</v>
+        <v>0.07221628517354439</v>
       </c>
       <c r="F18">
-        <v>0.4508304315719371</v>
+        <v>0.4354490547368712</v>
       </c>
       <c r="G18">
-        <v>0.2419710103680899</v>
+        <v>0.2219370261038804</v>
       </c>
       <c r="H18">
-        <v>0.07547007285248952</v>
+        <v>0.07433296928400068</v>
       </c>
       <c r="I18">
-        <v>0.01731838729387292</v>
+        <v>0.01256453729658524</v>
       </c>
       <c r="J18">
-        <v>0.242195560991938</v>
+        <v>0.2647402398653114</v>
       </c>
       <c r="K18">
-        <v>0.3467456437521221</v>
+        <v>0.3091500384346051</v>
       </c>
       <c r="L18">
-        <v>0.1527210080539554</v>
+        <v>0.1256047504765627</v>
       </c>
       <c r="M18">
-        <v>2.134958722700873</v>
+        <v>0.1065201823217161</v>
       </c>
       <c r="N18">
-        <v>0.307353006268869</v>
+        <v>0.1431153256459794</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.145138472389846</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3161040460118443</v>
       </c>
       <c r="Q18">
-        <v>0.968512448033465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9367758713928822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.111381112222176</v>
+        <v>1.081135790018379</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1183466311570029</v>
+        <v>0.1136012021101465</v>
       </c>
       <c r="E19">
-        <v>0.08173954150950413</v>
+        <v>0.07416764918796481</v>
       </c>
       <c r="F19">
-        <v>0.5002605998227452</v>
+        <v>0.4801203082570424</v>
       </c>
       <c r="G19">
-        <v>0.2728458135871819</v>
+        <v>0.2483177204849412</v>
       </c>
       <c r="H19">
-        <v>0.02993064239755938</v>
+        <v>0.02885345064387934</v>
       </c>
       <c r="I19">
-        <v>0.01714280980475102</v>
+        <v>0.01249360345696537</v>
       </c>
       <c r="J19">
-        <v>0.2587890588406694</v>
+        <v>0.2808584519469548</v>
       </c>
       <c r="K19">
-        <v>0.3607682228639497</v>
+        <v>0.3193914928735309</v>
       </c>
       <c r="L19">
-        <v>0.1346191647219612</v>
+        <v>0.1293189864216284</v>
       </c>
       <c r="M19">
-        <v>2.051438993824746</v>
+        <v>0.1104659514128077</v>
       </c>
       <c r="N19">
-        <v>0.362864496797684</v>
+        <v>0.1247699551381345</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.077242705247642</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3792518020640614</v>
       </c>
       <c r="Q19">
-        <v>1.06870026389484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.026213768079771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.222040726129848</v>
+        <v>1.173809233858265</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1459527098308016</v>
+        <v>0.1402351042139927</v>
       </c>
       <c r="E20">
-        <v>0.09517431789837616</v>
+        <v>0.08551343611557094</v>
       </c>
       <c r="F20">
-        <v>0.5859071978582762</v>
+        <v>0.5536670986400338</v>
       </c>
       <c r="G20">
-        <v>0.3265700821052206</v>
+        <v>0.3016557688980726</v>
       </c>
       <c r="H20">
-        <v>0.002446459696639813</v>
+        <v>0.00165957379147752</v>
       </c>
       <c r="I20">
-        <v>0.01549887487706059</v>
+        <v>0.0113534663950734</v>
       </c>
       <c r="J20">
-        <v>0.2847824161526944</v>
+        <v>0.2943748140910643</v>
       </c>
       <c r="K20">
-        <v>0.3843819186880406</v>
+        <v>0.3345093894574234</v>
       </c>
       <c r="L20">
-        <v>0.1268749035195138</v>
+        <v>0.1348501094434411</v>
       </c>
       <c r="M20">
-        <v>2.026020589831774</v>
+        <v>0.1166361435650547</v>
       </c>
       <c r="N20">
-        <v>0.4726725255188597</v>
+        <v>0.1147406499193266</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.07650364088073</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5038512366752741</v>
       </c>
       <c r="Q20">
-        <v>1.23714420384708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.165490884390991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.377827146984174</v>
+        <v>1.327897388408189</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1587133031942898</v>
+        <v>0.1562590690778052</v>
       </c>
       <c r="E21">
-        <v>0.09922961813698805</v>
+        <v>0.08934498108951061</v>
       </c>
       <c r="F21">
-        <v>0.6122424931167529</v>
+        <v>0.5587662818385724</v>
       </c>
       <c r="G21">
-        <v>0.3437170845729938</v>
+        <v>0.369696787849918</v>
       </c>
       <c r="H21">
-        <v>0.001146358029301076</v>
+        <v>0.0006838967856186429</v>
       </c>
       <c r="I21">
-        <v>0.01285657839796883</v>
+        <v>0.009553247209844962</v>
       </c>
       <c r="J21">
-        <v>0.2876179998719195</v>
+        <v>0.2356550890980031</v>
       </c>
       <c r="K21">
-        <v>0.3737482131096961</v>
+        <v>0.3191923743049134</v>
       </c>
       <c r="L21">
-        <v>0.1300309826075274</v>
+        <v>0.1290066757420911</v>
       </c>
       <c r="M21">
-        <v>2.253759749801617</v>
+        <v>0.1125955989500742</v>
       </c>
       <c r="N21">
-        <v>0.5387192592906587</v>
+        <v>0.1172950491007239</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.305731366530722</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.573536687873883</v>
       </c>
       <c r="Q21">
-        <v>1.279767196419613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.148185904698892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.479876786170763</v>
+        <v>1.429985008632485</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1660712396219992</v>
+        <v>0.1661944061431058</v>
       </c>
       <c r="E22">
-        <v>0.1012515138405057</v>
+        <v>0.09139290287906299</v>
       </c>
       <c r="F22">
-        <v>0.6277281028908916</v>
+        <v>0.5593853231431467</v>
       </c>
       <c r="G22">
-        <v>0.3541468634721383</v>
+        <v>0.4210952520005975</v>
       </c>
       <c r="H22">
-        <v>0.0006319209071936616</v>
+        <v>0.0003326795614709832</v>
       </c>
       <c r="I22">
-        <v>0.01100483176840328</v>
+        <v>0.008130705288815321</v>
       </c>
       <c r="J22">
-        <v>0.2891326262165563</v>
+        <v>0.2040260814730388</v>
       </c>
       <c r="K22">
-        <v>0.3667007564984974</v>
+        <v>0.3090478751582459</v>
       </c>
       <c r="L22">
-        <v>0.1320525684295535</v>
+        <v>0.1254111116149805</v>
       </c>
       <c r="M22">
-        <v>2.402125841190582</v>
+        <v>0.1100603971058316</v>
       </c>
       <c r="N22">
-        <v>0.5748900274384994</v>
+        <v>0.1190621451423572</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.453228121956784</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6111805012891267</v>
       </c>
       <c r="Q22">
-        <v>1.305260399408525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.131634395551743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.428986617679186</v>
+        <v>1.377716650598245</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1623930990336788</v>
+        <v>0.1606458955058656</v>
       </c>
       <c r="E23">
-        <v>0.1004246908000326</v>
+        <v>0.09044789438474332</v>
       </c>
       <c r="F23">
-        <v>0.6210649175206271</v>
+        <v>0.5623480590486167</v>
       </c>
       <c r="G23">
-        <v>0.3497131783310508</v>
+        <v>0.3878914839222318</v>
       </c>
       <c r="H23">
-        <v>0.0008839486109053496</v>
+        <v>0.0004999903068212408</v>
       </c>
       <c r="I23">
-        <v>0.01161347736262996</v>
+        <v>0.008453326627775759</v>
       </c>
       <c r="J23">
-        <v>0.288914360932921</v>
+        <v>0.2251885612966049</v>
       </c>
       <c r="K23">
-        <v>0.3715962085678708</v>
+        <v>0.3156934085869594</v>
       </c>
       <c r="L23">
-        <v>0.1310613042139823</v>
+        <v>0.1276592111600356</v>
       </c>
       <c r="M23">
-        <v>2.317769221029579</v>
+        <v>0.1119705991833335</v>
       </c>
       <c r="N23">
-        <v>0.5531377890665823</v>
+        <v>0.1181927222807113</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.371363523885776</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.589240752606571</v>
       </c>
       <c r="Q23">
-        <v>1.295291639758403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.149142584027942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.229971723484283</v>
+        <v>1.180134121173865</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1480936143069442</v>
+        <v>0.1422199433460847</v>
       </c>
       <c r="E24">
-        <v>0.09685524122436995</v>
+        <v>0.08695213092785004</v>
       </c>
       <c r="F24">
-        <v>0.5944150028053414</v>
+        <v>0.5613887535487905</v>
       </c>
       <c r="G24">
-        <v>0.3321102571356036</v>
+        <v>0.3061925498819704</v>
       </c>
       <c r="H24">
-        <v>0.00226467367510752</v>
+        <v>0.001490065922797768</v>
       </c>
       <c r="I24">
-        <v>0.01488634946679035</v>
+        <v>0.0106574906179091</v>
       </c>
       <c r="J24">
-        <v>0.2877469510955706</v>
+        <v>0.2975108039376693</v>
       </c>
       <c r="K24">
-        <v>0.388867886283208</v>
+        <v>0.3378967010239506</v>
       </c>
       <c r="L24">
-        <v>0.1271231667084485</v>
+        <v>0.1360715188420638</v>
       </c>
       <c r="M24">
-        <v>2.007397797230936</v>
+        <v>0.1179433713856053</v>
       </c>
       <c r="N24">
-        <v>0.4751917092777802</v>
+        <v>0.1146472530932039</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.05969765209997</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5074948053705839</v>
       </c>
       <c r="Q24">
-        <v>1.255092156227775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.18170979355456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.014353201659219</v>
+        <v>0.9770187885785333</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.132749568331441</v>
+        <v>0.1273978739678938</v>
       </c>
       <c r="E25">
-        <v>0.0929410239014512</v>
+        <v>0.08377914410099585</v>
       </c>
       <c r="F25">
-        <v>0.568260641583727</v>
+        <v>0.5418226607832395</v>
       </c>
       <c r="G25">
-        <v>0.3153242246454369</v>
+        <v>0.2879396156263425</v>
       </c>
       <c r="H25">
-        <v>0.004586298507280595</v>
+        <v>0.003309068644975266</v>
       </c>
       <c r="I25">
-        <v>0.01923531321688809</v>
+        <v>0.01375731750777298</v>
       </c>
       <c r="J25">
-        <v>0.2878384838816004</v>
+        <v>0.3039806261273839</v>
       </c>
       <c r="K25">
-        <v>0.4087904663244633</v>
+        <v>0.3581312513705637</v>
       </c>
       <c r="L25">
-        <v>0.122758667884086</v>
+        <v>0.1448418044266155</v>
       </c>
       <c r="M25">
-        <v>1.673618973661604</v>
+        <v>0.1237627563175154</v>
       </c>
       <c r="N25">
-        <v>0.3919285879329522</v>
+        <v>0.1102306574294465</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.70557720886103</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4149168333100732</v>
       </c>
       <c r="Q25">
-        <v>1.219199462703926</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.161816551025723</v>
       </c>
     </row>
   </sheetData>
